--- a/MAS Spec.xlsx
+++ b/MAS Spec.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project holder\MAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A608C62-9797-465F-B645-5CDCC45F1AB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B604E5BB-4E4B-4C3D-804C-7D426C2FDF9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="5" activeTab="9" xr2:uid="{D1BE928E-20C9-4821-A701-6B55A969F1AB}"/>
-    <workbookView xWindow="-18120" yWindow="-12930" windowWidth="18240" windowHeight="29040" firstSheet="5" activeTab="7" xr2:uid="{A5A08AE7-B814-4604-A72D-A6C54990E20D}"/>
+    <workbookView xWindow="-18120" yWindow="-12930" windowWidth="18240" windowHeight="29040" firstSheet="5" activeTab="9" xr2:uid="{A5A08AE7-B814-4604-A72D-A6C54990E20D}"/>
   </bookViews>
   <sheets>
     <sheet name="MAS" sheetId="1" r:id="rId1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="333">
   <si>
     <t>A dynamic, highly adaptable, programming language. (Currently only a concept)</t>
   </si>
@@ -1089,6 +1088,18 @@
   </si>
   <si>
     <t>Provides the owning scope of a symbol associated with a heap allocation.</t>
+  </si>
+  <si>
+    <t>Has some C++ like features when it comes to level of complexity associated with classes and template concepts</t>
+  </si>
+  <si>
+    <t>scope.caller</t>
+  </si>
+  <si>
+    <t>Provides the symbol for the calling scope of the current procedure's scope</t>
+  </si>
+  <si>
+    <t>Used inconjunction with symbol.owner to do assignment of ownership across callstack.</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1254,6 +1265,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1350,7 +1364,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="123">
+  <dxfs count="119">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1472,6 +1486,630 @@
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1688,686 +2326,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF222222"/>
@@ -2397,10 +2355,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="4" xr9:uid="{EED84AA4-4A90-427B-A9D8-F29706D73739}">
-      <tableStyleElement type="wholeTable" dxfId="122"/>
-      <tableStyleElement type="headerRow" dxfId="121"/>
-      <tableStyleElement type="firstRowStripe" dxfId="120"/>
-      <tableStyleElement type="secondRowStripe" dxfId="119"/>
+      <tableStyleElement type="wholeTable" dxfId="118"/>
+      <tableStyleElement type="headerRow" dxfId="117"/>
+      <tableStyleElement type="firstRowStripe" dxfId="116"/>
+      <tableStyleElement type="secondRowStripe" dxfId="115"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2420,156 +2378,156 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8221EB5-F5DE-42C5-BD2A-A4193CB57630}" name="Table1" displayName="Table1" ref="A14:C25" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8221EB5-F5DE-42C5-BD2A-A4193CB57630}" name="Table1" displayName="Table1" ref="A14:C25" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="A14:C25" xr:uid="{8A88DB68-19AB-4B4C-968A-11720E169DE1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{751FFE96-0642-4126-99DE-8F0D157E6825}" name="Sectors" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{71AD3934-3564-4523-B297-7BE35ADA4F25}" name="Usage" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{E3EE9372-3C6F-42F7-BDB1-5090B39632DB}" name="Brief" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{751FFE96-0642-4126-99DE-8F0D157E6825}" name="Sectors" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{71AD3934-3564-4523-B297-7BE35ADA4F25}" name="Usage" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{E3EE9372-3C6F-42F7-BDB1-5090B39632DB}" name="Brief" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{C079B5A1-95F8-4F8C-B948-57E3050BA5D4}" name="Table423" displayName="Table423" ref="A18:C21" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{C079B5A1-95F8-4F8C-B948-57E3050BA5D4}" name="Table423" displayName="Table423" ref="A18:C21" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
   <autoFilter ref="A18:C21" xr:uid="{3CA37628-F903-4E05-AA13-F9FF20B25BA4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BBC41DF8-D354-40AB-90D6-43FEFCF70071}" name="Specifierss" dataDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{27073070-DE84-40CC-92E3-823101BE1FFB}" name="Usage" dataDxfId="112"/>
-    <tableColumn id="3" xr3:uid="{EACEC5BC-2774-491A-B877-E8C9E5944DD3}" name="Brief" dataDxfId="111"/>
+    <tableColumn id="1" xr3:uid="{BBC41DF8-D354-40AB-90D6-43FEFCF70071}" name="Specifierss" dataDxfId="109"/>
+    <tableColumn id="2" xr3:uid="{27073070-DE84-40CC-92E3-823101BE1FFB}" name="Usage" dataDxfId="108"/>
+    <tableColumn id="3" xr3:uid="{EACEC5BC-2774-491A-B877-E8C9E5944DD3}" name="Brief" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{5F92561C-1F90-456A-AD00-A848E85631D6}" name="Table624" displayName="Table624" ref="A45:C48" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{5F92561C-1F90-456A-AD00-A848E85631D6}" name="Table624" displayName="Table624" ref="A45:C48" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <autoFilter ref="A45:C48" xr:uid="{C881E9E8-F2AD-447B-8CA5-2AF22196975F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BBD90EC4-BB6C-4C8C-A820-C64956212497}" name="Members" dataDxfId="108"/>
-    <tableColumn id="2" xr3:uid="{9D58CD7D-4B65-4BC9-BDD4-0FE8007A99E5}" name="Brief" dataDxfId="107"/>
-    <tableColumn id="3" xr3:uid="{EB07DBE4-56D7-402A-9935-C5D944EA811D}" name="_" dataDxfId="106"/>
+    <tableColumn id="1" xr3:uid="{BBD90EC4-BB6C-4C8C-A820-C64956212497}" name="Members" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{9D58CD7D-4B65-4BC9-BDD4-0FE8007A99E5}" name="Brief" dataDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{EB07DBE4-56D7-402A-9935-C5D944EA811D}" name="_" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D8BBBFE9-0F1F-4CDF-B1D7-99449821AEBE}" name="Table725" displayName="Table725" ref="A36:C44" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D8BBBFE9-0F1F-4CDF-B1D7-99449821AEBE}" name="Table725" displayName="Table725" ref="A36:C44" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
   <autoFilter ref="A36:C44" xr:uid="{866E55DA-034A-491F-BCF7-85E2420605BA}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{312DCDBB-AE85-4D3B-B868-D568136E9DDB}" name="Types" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{DE1F0BB5-D794-46D8-956C-71665599FA58}" name="Brief" dataDxfId="102"/>
-    <tableColumn id="3" xr3:uid="{A9511E96-27B9-493D-B5A8-075837052CC8}" name="_" dataDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{312DCDBB-AE85-4D3B-B868-D568136E9DDB}" name="Types" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{DE1F0BB5-D794-46D8-956C-71665599FA58}" name="Brief" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{A9511E96-27B9-493D-B5A8-075837052CC8}" name="_" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{5C41F4F1-AE4B-4C02-ACDE-771C12E7F59B}" name="Table1026" displayName="Table1026" ref="A23:C33" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{5C41F4F1-AE4B-4C02-ACDE-771C12E7F59B}" name="Table1026" displayName="Table1026" ref="A23:C33" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
   <autoFilter ref="A23:C33" xr:uid="{7EEDCE1A-2B88-4DFF-B845-F0567DC8C077}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0830BAA5-170C-42AB-A70E-E7534FAB72BE}" name="Symbol Declaration" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{7117BDC5-2752-4E71-A5FD-B4C65A17F096}" name="_" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{CF6FA86F-D0EE-4314-B0CE-9A0F85331BF7}" name="_2" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{0830BAA5-170C-42AB-A70E-E7534FAB72BE}" name="Symbol Declaration" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{7117BDC5-2752-4E71-A5FD-B4C65A17F096}" name="_" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{CF6FA86F-D0EE-4314-B0CE-9A0F85331BF7}" name="_2" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{2A08B477-2CCA-425C-9E36-51C6D41B9BB5}" name="Table1227" displayName="Table1227" ref="A49:C51" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{2A08B477-2CCA-425C-9E36-51C6D41B9BB5}" name="Table1227" displayName="Table1227" ref="A49:C51" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
   <autoFilter ref="A49:C51" xr:uid="{C0379C44-9F8B-4DF0-AEA2-3FC638B77789}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1A9F6BD7-9833-4775-866A-30E4717FD2DC}" name="Functions" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{8A3A0DD4-8CFD-4D8A-80C1-13C9462E61F0}" name="Usage" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{3AAA881B-D9FC-47AD-ADCB-ADA6D41C42DC}" name="Brief" dataDxfId="91"/>
+    <tableColumn id="1" xr3:uid="{1A9F6BD7-9833-4775-866A-30E4717FD2DC}" name="Functions" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{8A3A0DD4-8CFD-4D8A-80C1-13C9462E61F0}" name="Usage" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{3AAA881B-D9FC-47AD-ADCB-ADA6D41C42DC}" name="Brief" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F99FDF73-825E-42A7-90A3-3E51A6462DB9}" name="Table1928" displayName="Table1928" ref="A52:C56" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F99FDF73-825E-42A7-90A3-3E51A6462DB9}" name="Table1928" displayName="Table1928" ref="A52:C56" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
   <autoFilter ref="A52:C56" xr:uid="{09354B2E-EA17-446C-915F-26293A952F3B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{07058EB1-BAE2-490C-9AC8-65464543B5A6}" name="Literals" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{93FDE79D-B8E4-45E3-BF26-2C2D2F288626}" name="Brief" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{0FCCB748-7E3A-4648-9423-774D63C6AB25}" name="_ Default literals can be changed  for #, #.#, ‘’, and “” individually." dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{07058EB1-BAE2-490C-9AC8-65464543B5A6}" name="Literals" dataDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{93FDE79D-B8E4-45E3-BF26-2C2D2F288626}" name="Brief" dataDxfId="83"/>
+    <tableColumn id="3" xr3:uid="{0FCCB748-7E3A-4648-9423-774D63C6AB25}" name="_ Default literals can be changed  for #, #.#, ‘’, and “” individually." dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{68729C49-45D5-4F2F-BA15-E0B7B0995610}" name="Table2029" displayName="Table2029" ref="A58:C66" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{68729C49-45D5-4F2F-BA15-E0B7B0995610}" name="Table2029" displayName="Table2029" ref="A58:C66" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
   <autoFilter ref="A58:C66" xr:uid="{390A96E2-2F7B-4D96-B65E-DE1A07AB23FD}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E48861ED-A4C7-4DC9-8D78-99DF2B16E271}" name="Operators" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{E012A374-9B90-4F06-A405-B2ECC5B00013}" name="Usuage" dataDxfId="82"/>
-    <tableColumn id="3" xr3:uid="{117B044A-0EBD-4F57-B464-836948777098}" name="Brief" dataDxfId="81"/>
+    <tableColumn id="1" xr3:uid="{E48861ED-A4C7-4DC9-8D78-99DF2B16E271}" name="Operators" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{E012A374-9B90-4F06-A405-B2ECC5B00013}" name="Usuage" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{117B044A-0EBD-4F57-B464-836948777098}" name="Brief" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{55191E53-751C-4808-A677-7F7CBBB64889}" name="Table12216" displayName="Table12216" ref="A14:C15" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{55191E53-751C-4808-A677-7F7CBBB64889}" name="Table12216" displayName="Table12216" ref="A14:C15" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A14:C15" xr:uid="{B6E0847B-0ACD-4E0D-8F58-463D171DB668}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{38E4526C-2A54-4C2A-8135-00405EDB15E5}" name="Sectors" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{8D056591-AC71-4CC1-94A7-71D1E865DB23}" name="Usage" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{E741E63B-E7B8-40AE-86BA-FDFA3D048511}" name="Brief" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{38E4526C-2A54-4C2A-8135-00405EDB15E5}" name="Sectors" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{8D056591-AC71-4CC1-94A7-71D1E865DB23}" name="Usage" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{E741E63B-E7B8-40AE-86BA-FDFA3D048511}" name="Brief" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{6C5E5D84-2AC4-4EB6-B026-2965625E1139}" name="Table42317" displayName="Table42317" ref="A17:C20" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{6C5E5D84-2AC4-4EB6-B026-2965625E1139}" name="Table42317" displayName="Table42317" ref="A17:C20" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A17:C20" xr:uid="{B96529FB-CE4B-4F3C-9833-1CA21B4CDB15}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EDA61AB7-50A5-4058-B454-1EDBD00CA7B2}" name="Specifierss" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{3ED00038-A82E-4420-8C94-C80D2646D192}" name="Usage" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{92AC676A-6702-4764-8E1B-B5D53BD49FC5}" name="Brief" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{EDA61AB7-50A5-4058-B454-1EDBD00CA7B2}" name="Specifierss" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{3ED00038-A82E-4420-8C94-C80D2646D192}" name="Usage" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{92AC676A-6702-4764-8E1B-B5D53BD49FC5}" name="Brief" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{192B16E9-AA2B-4C48-94A4-C546850B4AF1}" name="Table62418" displayName="Table62418" ref="A44:C46" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A44:C46" xr:uid="{C395172E-5B24-4FA6-81B4-F7A850F644F3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{192B16E9-AA2B-4C48-94A4-C546850B4AF1}" name="Table62418" displayName="Table62418" ref="A39:C41" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A39:C41" xr:uid="{C395172E-5B24-4FA6-81B4-F7A850F644F3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1A3A8958-7CE9-4FFD-A4FD-7E2DE303E6AF}" name="Members" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{FEED67A6-E2FA-4F43-ABCB-8B4C47D323BD}" name="Brief" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{C06AC32B-8407-4B4C-9BAD-B6DAAB0DA729}" name="_" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{1A3A8958-7CE9-4FFD-A4FD-7E2DE303E6AF}" name="Members" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{FEED67A6-E2FA-4F43-ABCB-8B4C47D323BD}" name="Brief" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{C06AC32B-8407-4B4C-9BAD-B6DAAB0DA729}" name="_" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69E1B3D1-3021-44E2-95A1-A5446EC84126}" name="Table4" displayName="Table4" ref="A27:C37" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69E1B3D1-3021-44E2-95A1-A5446EC84126}" name="Table4" displayName="Table4" ref="A27:C37" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="A27:C37" xr:uid="{56088307-7690-4CFD-AC1E-870D6C9557D1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8D16C3D0-2C0C-403C-8AB9-3B6B39184529}" name="Specifiers" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{F9CE1155-D8BD-4F21-929A-966B0855B2B2}" name="Usage" dataDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{CFE9E412-4074-4020-A94F-7B03A2CF3421}" name="Brief" dataDxfId="71"/>
+    <tableColumn id="1" xr3:uid="{8D16C3D0-2C0C-403C-8AB9-3B6B39184529}" name="Specifiers" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{F9CE1155-D8BD-4F21-929A-966B0855B2B2}" name="Usage" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{CFE9E412-4074-4020-A94F-7B03A2CF3421}" name="Brief" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{730E2DE3-DFB5-414A-BDF2-1857CB8A6143}" name="Table72519" displayName="Table72519" ref="A35:C43" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A35:C43" xr:uid="{94258663-704B-45AB-8BC6-E651B94EEEF1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{730E2DE3-DFB5-414A-BDF2-1857CB8A6143}" name="Table72519" displayName="Table72519" ref="A35:C38" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A35:C38" xr:uid="{94258663-704B-45AB-8BC6-E651B94EEEF1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CAAB3C64-E4B7-48EE-8C90-35AA5F00194E}" name="Types" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{1E12A8A2-5B0E-4A18-8ED1-090A246CB328}" name="Brief" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{0FB17105-5A68-4B19-9A50-5D7AC1AEF488}" name="_" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{CAAB3C64-E4B7-48EE-8C90-35AA5F00194E}" name="Types"/>
+    <tableColumn id="2" xr3:uid="{1E12A8A2-5B0E-4A18-8ED1-090A246CB328}" name="Brief"/>
+    <tableColumn id="3" xr3:uid="{0FB17105-5A68-4B19-9A50-5D7AC1AEF488}" name="_"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2588,8 +2546,8 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{23D00811-874A-441F-A1C9-F7B25114C85D}" name="Table122731" displayName="Table122731" ref="A47:C49" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A47:C49" xr:uid="{0E83EAC3-71AC-4B57-9BE1-B1A3E5E18259}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{23D00811-874A-441F-A1C9-F7B25114C85D}" name="Table122731" displayName="Table122731" ref="A42:C44" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A42:C44" xr:uid="{0E83EAC3-71AC-4B57-9BE1-B1A3E5E18259}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CA072D74-0ADC-4B15-9DD1-F9D45730AAE0}" name="Functions" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{662FF820-B0D3-4652-964F-FB90D1C15996}" name="Usage" dataDxfId="13"/>
@@ -2600,8 +2558,8 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{1C75F9E2-A5A6-46DF-B25F-655FC7B38263}" name="Table192832" displayName="Table192832" ref="A50:C54" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A50:C54" xr:uid="{15838596-FD90-4362-85AE-4B3162498C88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{1C75F9E2-A5A6-46DF-B25F-655FC7B38263}" name="Table192832" displayName="Table192832" ref="A45:C49" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A45:C49" xr:uid="{15838596-FD90-4362-85AE-4B3162498C88}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A5C0E435-7568-4102-9570-C3F3868D1CFA}" name="Literals" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{BAB653D8-1CBF-4B97-B3B6-971BFD733DDE}" name="Brief" dataDxfId="8"/>
@@ -2612,8 +2570,8 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{8DBEE429-E0E5-4F2A-B4E5-E279A3C201F2}" name="Table202933" displayName="Table202933" ref="A57:C67" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A57:C67" xr:uid="{FB8FA1B5-7FF9-4B84-8BE4-A40FC74FE472}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{8DBEE429-E0E5-4F2A-B4E5-E279A3C201F2}" name="Table202933" displayName="Table202933" ref="A52:C62" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A52:C62" xr:uid="{FB8FA1B5-7FF9-4B84-8BE4-A40FC74FE472}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FF602193-0D5B-4B33-89DC-C6AC60258D09}" name="Operators" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{FB6F3133-0F6E-4A20-883C-B3EBC78F1321}" name="Usuage" dataDxfId="3"/>
@@ -2624,84 +2582,84 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FC39F185-B784-4E83-85FC-53C6A3D529CC}" name="Table6" displayName="Table6" ref="A66:C71" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FC39F185-B784-4E83-85FC-53C6A3D529CC}" name="Table6" displayName="Table6" ref="A66:C71" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="A66:C71" xr:uid="{F6905302-BBD2-4361-BBAD-4DB823880BE6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{611D7444-C0FF-411E-A9B7-B52B4FF9C14C}" name="Members" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{5C3C466D-850B-4F76-AB9E-9488905AE714}" name="Brief" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{EB152C3F-F05A-48CD-97BB-F90B2B56D7AA}" name="_" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{611D7444-C0FF-411E-A9B7-B52B4FF9C14C}" name="Members" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{5C3C466D-850B-4F76-AB9E-9488905AE714}" name="Brief" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{EB152C3F-F05A-48CD-97BB-F90B2B56D7AA}" name="_" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3265CDA0-FEAC-4BC3-8395-B2A2730CCC79}" name="Table7" displayName="Table7" ref="A61:C65" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3265CDA0-FEAC-4BC3-8395-B2A2730CCC79}" name="Table7" displayName="Table7" ref="A61:C65" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="A61:C65" xr:uid="{27137909-7DE8-48DD-A499-C8CD51178AF0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8039BF03-D68F-4CC7-84DA-838BE536DB86}" name="Types" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{5310CCDF-370A-49F7-A467-9CC9E31D81CB}" name="Brief" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{7FF4E887-22EC-4B3B-ADD3-B72A5EBEB921}" name="_" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{8039BF03-D68F-4CC7-84DA-838BE536DB86}" name="Types" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{5310CCDF-370A-49F7-A467-9CC9E31D81CB}" name="Brief" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{7FF4E887-22EC-4B3B-ADD3-B72A5EBEB921}" name="_" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{97C59969-36F2-4CA8-91EB-A86C7FED912A}" name="Table10" displayName="Table10" ref="A39:C58" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{97C59969-36F2-4CA8-91EB-A86C7FED912A}" name="Table10" displayName="Table10" ref="A39:C58" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="A39:C58" xr:uid="{6A3BD966-3E0C-4777-814B-D5BFB6747569}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C070D8DF-DC50-4E9A-B487-A9F293CDAAEC}" name="Symbol Declaration" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{105D1A2A-D472-42FF-9C8B-30EC088229CD}" name="_" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{6B4DEF52-6C90-4179-98C7-95F13BBB64A1}" name="_2" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{C070D8DF-DC50-4E9A-B487-A9F293CDAAEC}" name="Symbol Declaration" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{105D1A2A-D472-42FF-9C8B-30EC088229CD}" name="_" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{6B4DEF52-6C90-4179-98C7-95F13BBB64A1}" name="_2" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B9A2C213-B54A-43E6-897A-3CA10271B214}" name="Table12" displayName="Table12" ref="A72:C76" totalsRowShown="0" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B9A2C213-B54A-43E6-897A-3CA10271B214}" name="Table12" displayName="Table12" ref="A72:C76" totalsRowShown="0" dataDxfId="36">
   <autoFilter ref="A72:C76" xr:uid="{247DE2B2-7606-4AB6-A53B-F417E06B87A0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{57E9B2F9-E7C0-488B-BA2B-8FC25EDB6732}" name="Functions" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{0BC9E605-B3B5-4791-92B1-0224425765DC}" name="Usage" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{DD06BA51-9A67-4D84-8767-7CA35090525C}" name="Brief" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{57E9B2F9-E7C0-488B-BA2B-8FC25EDB6732}" name="Functions" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{0BC9E605-B3B5-4791-92B1-0224425765DC}" name="Usage" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{DD06BA51-9A67-4D84-8767-7CA35090525C}" name="Brief" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{81BF3C54-F3D4-414A-B9D3-03257DFABC20}" name="Table19" displayName="Table19" ref="A77:C80" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{81BF3C54-F3D4-414A-B9D3-03257DFABC20}" name="Table19" displayName="Table19" ref="A77:C80" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A77:C80" xr:uid="{33CF9CD0-9484-4D64-8287-6291076AE080}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8D11FB64-911D-4801-8F1D-50D79534BEFB}" name="Literals" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{AD8E6E3E-11DA-41A5-BFF5-F10A2F873786}" name="Brief" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{8F9D6964-EB1E-46DA-8EF3-128EA3E1058B}" name="_ Default literals can be changed  for #, #.#, ‘’, and “” individually." dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{8D11FB64-911D-4801-8F1D-50D79534BEFB}" name="Literals" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{AD8E6E3E-11DA-41A5-BFF5-F10A2F873786}" name="Brief" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{8F9D6964-EB1E-46DA-8EF3-128EA3E1058B}" name="_ Default literals can be changed  for #, #.#, ‘’, and “” individually." dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{48F782A1-5E1A-47D8-BA24-C764744A04B8}" name="Table20" displayName="Table20" ref="A83:C90" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{48F782A1-5E1A-47D8-BA24-C764744A04B8}" name="Table20" displayName="Table20" ref="A83:C90" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A83:C90" xr:uid="{B213D981-5B41-4573-8EC2-4DF8AE7C8306}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2205C0CB-F63E-4FCF-BC7E-1878E6029E0B}" name="Operators" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{AD7C09D2-E091-404D-B980-F948347E06E3}" name="Usuage" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{0EE06045-D26C-44D6-B583-744C1AFF7394}" name="Brief" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{2205C0CB-F63E-4FCF-BC7E-1878E6029E0B}" name="Operators" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{AD7C09D2-E091-404D-B980-F948347E06E3}" name="Usuage" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{0EE06045-D26C-44D6-B583-744C1AFF7394}" name="Brief" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{EFC039FA-5F10-4920-ADF8-EA9616614E76}" name="Table122" displayName="Table122" ref="A15:C16" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{EFC039FA-5F10-4920-ADF8-EA9616614E76}" name="Table122" displayName="Table122" ref="A15:C16" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
   <autoFilter ref="A15:C16" xr:uid="{5E07E4AE-33A2-4473-9C18-C306E8B4CBC8}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C4F7DA5B-D14F-497B-AF71-33F84BE68440}" name="Sectors" dataDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{E7C3F882-719C-4BCC-86A4-EFCE80E5AC53}" name="Usage" dataDxfId="117"/>
-    <tableColumn id="3" xr3:uid="{472BB7D9-72FF-440B-9BBE-0C3D1C688B9D}" name="Brief" dataDxfId="116"/>
+    <tableColumn id="1" xr3:uid="{C4F7DA5B-D14F-497B-AF71-33F84BE68440}" name="Sectors" dataDxfId="114"/>
+    <tableColumn id="2" xr3:uid="{E7C3F882-719C-4BCC-86A4-EFCE80E5AC53}" name="Usage" dataDxfId="113"/>
+    <tableColumn id="3" xr3:uid="{472BB7D9-72FF-440B-9BBE-0C3D1C688B9D}" name="Brief" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3009,9 +2967,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:B1"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3022,47 +2977,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
     </row>
     <row r="4" spans="1:2" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="31"/>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="30"/>
     </row>
     <row r="7" spans="1:2" ht="294" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="31"/>
     </row>
     <row r="8" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="32"/>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -3183,531 +3138,511 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601C789F-A70D-44BB-BC27-A6660557AFE0}">
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" style="23" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="21.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="73.140625" style="24" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="28"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
     </row>
     <row r="11" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="45" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="20" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="20" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
+      <c r="A39" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="18"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B44" s="19" t="s">
+      <c r="A42" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+    </row>
+    <row r="44" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>315</v>
+        <v>140</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>328</v>
+        <v>20</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
     </row>
-    <row r="49" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" s="19" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="19" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
+      <c r="A53" s="39" t="s">
+        <v>194</v>
+      </c>
       <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
+      <c r="C53" s="19" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
+      <c r="A54" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="B57" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18" t="s">
-        <v>202</v>
+      <c r="A55" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="A60" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="C60" s="21"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="C65" s="26"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-    </row>
-    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="48" t="s">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+    </row>
+    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="49" t="s">
         <v>325</v>
       </c>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3735,12 +3670,54 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D25EFA-8543-4173-8538-C9C6D311089E}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="18" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:L4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF95F533-B3C5-4574-91F1-62FB50CEC440}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="A1:XFD1048576"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3754,35 +3731,6 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF95F533-B3C5-4574-91F1-62FB50CEC440}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3795,10 +3743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BB39E1-BBDA-433B-A2A0-5DB3473C70E3}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3888,17 +3833,17 @@
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3994,7 +3939,6 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4021,8 +3965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF91EC3-9B9C-4C79-892E-9DBBC47CA9BC}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4141,7 +4084,6 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4232,7 +4174,6 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4269,7 +4210,6 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4296,764 +4236,761 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B901BF-B7D2-4220-8AE7-CE487DD5E5C4}">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="1">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" style="23" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="21.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="73.140625" style="24" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
     </row>
     <row r="10" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
     </row>
     <row r="12" spans="1:13" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>316</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="19" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="19" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="19" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="19" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="22" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="21" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="45" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="20" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="21" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="20" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="20" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="20" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="20" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="29" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="20" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="45" t="s">
+      <c r="A56" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="20" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="19"/>
+      <c r="C62" s="20"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="19"/>
+      <c r="C63" s="20"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="19"/>
+      <c r="C64" s="20"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="C65" s="19"/>
+      <c r="C65" s="20"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="20" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="19"/>
+      <c r="C67" s="20"/>
     </row>
     <row r="68" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="19"/>
+      <c r="C68" s="20"/>
     </row>
     <row r="69" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C69" s="19"/>
+      <c r="C69" s="20"/>
     </row>
     <row r="70" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="19"/>
+      <c r="C70" s="20"/>
     </row>
     <row r="71" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="19"/>
+      <c r="C71" s="20"/>
     </row>
     <row r="72" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -5067,200 +5004,200 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
+      <c r="A73" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="21" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="21" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="21" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="21" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="19" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="18" t="s">
+      <c r="A78" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C78" s="18"/>
+      <c r="C78" s="19"/>
     </row>
     <row r="79" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C79" s="18"/>
+      <c r="C79" s="19"/>
     </row>
     <row r="80" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
+      <c r="A80" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="C80" s="18"/>
+      <c r="C80" s="19"/>
     </row>
     <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
     </row>
     <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="43" t="s">
+      <c r="A83" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="B83" s="43" t="s">
+      <c r="B83" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="C83" s="43" t="s">
+      <c r="C83" s="44" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="18"/>
-      <c r="B84" s="21" t="s">
+      <c r="A84" s="19"/>
+      <c r="B84" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="22" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="18" t="s">
+      <c r="A85" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18" t="s">
+      <c r="B85" s="19"/>
+      <c r="C85" s="19" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18" t="s">
+      <c r="B86" s="19"/>
+      <c r="C86" s="19" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18" t="s">
+      <c r="B87" s="19"/>
+      <c r="C87" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18" t="s">
+      <c r="B88" s="19"/>
+      <c r="C88" s="19" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="18" t="s">
+      <c r="A89" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18" t="s">
+      <c r="B89" s="19"/>
+      <c r="C89" s="19" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="18" t="s">
+      <c r="A90" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18" t="s">
+      <c r="B90" s="19"/>
+      <c r="C90" s="19" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="92" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="36" t="s">
+      <c r="A92" s="37" t="s">
         <v>326</v>
       </c>
-      <c r="B92" s="37"/>
-      <c r="C92" s="37"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
     </row>
     <row r="93" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="37" t="s">
+      <c r="A93" s="38" t="s">
         <v>307</v>
       </c>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
     </row>
     <row r="94" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="40" t="s">
+      <c r="A94" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
     </row>
     <row r="95" spans="1:13" ht="348.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D95" s="42"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="42"/>
-      <c r="G95" s="42"/>
-      <c r="H95" s="42"/>
-      <c r="I95" s="42"/>
-      <c r="J95" s="42"/>
-      <c r="K95" s="42"/>
-      <c r="L95" s="42"/>
-      <c r="M95" s="42"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="43"/>
+      <c r="J95" s="43"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="43"/>
+      <c r="M95" s="43"/>
     </row>
     <row r="96" spans="1:13" ht="348.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -5297,726 +5234,723 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349BFA30-CCAE-439E-9B33-6250609A724A}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
-    </sheetView>
-    <sheetView topLeftCell="A31" workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" style="23" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="21.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="73.140625" style="24" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
     </row>
     <row r="10" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
     </row>
     <row r="14" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
     </row>
     <row r="16" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="28" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="45" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="20" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="20" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="29" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="20" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="20" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="C37" s="19"/>
+      <c r="C37" s="20"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="C38" s="19"/>
+      <c r="C38" s="20"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="C40" s="19"/>
+      <c r="C40" s="20"/>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="19"/>
+      <c r="C41" s="20"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="20" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="20" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="19" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="20" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="C46" s="19"/>
+      <c r="C46" s="20"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="C47" s="19"/>
+      <c r="C47" s="20"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="C48" s="19"/>
+      <c r="C48" s="20"/>
     </row>
     <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="21" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="21" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="20" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="C53" s="19"/>
+      <c r="C53" s="20"/>
     </row>
     <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C54" s="19"/>
+      <c r="C54" s="20"/>
     </row>
     <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="C55" s="19"/>
+      <c r="C55" s="20"/>
     </row>
     <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="C56" s="28"/>
+      <c r="C56" s="29"/>
     </row>
     <row r="57" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="43" t="s">
+      <c r="A58" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="C58" s="43" t="s">
+      <c r="C58" s="44" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
-      <c r="B59" s="21" t="s">
+      <c r="A59" s="19"/>
+      <c r="B59" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="22" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18" t="s">
+      <c r="B60" s="19"/>
+      <c r="C60" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
     </row>
     <row r="61" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18" t="s">
+      <c r="B61" s="19"/>
+      <c r="C61" s="19" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18" t="s">
+      <c r="B62" s="19"/>
+      <c r="C62" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="38" t="s">
+      <c r="A63" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18" t="s">
+      <c r="B63" s="19"/>
+      <c r="C63" s="19" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="19" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="19" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="27" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="37" t="s">
+      <c r="A69" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/MAS Spec.xlsx
+++ b/MAS Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project holder\MAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B604E5BB-4E4B-4C3D-804C-7D426C2FDF9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B93556B-1A03-41B1-8291-EFF313BE8D01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18120" yWindow="-12930" windowWidth="18240" windowHeight="29040" firstSheet="5" activeTab="9" xr2:uid="{A5A08AE7-B814-4604-A72D-A6C54990E20D}"/>
+    <workbookView xWindow="-18120" yWindow="-12930" windowWidth="18240" windowHeight="29040" firstSheet="2" activeTab="11" xr2:uid="{A5A08AE7-B814-4604-A72D-A6C54990E20D}"/>
   </bookViews>
   <sheets>
     <sheet name="MAS" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,11 @@
     <sheet name="Blueprint" sheetId="10" r:id="rId5"/>
     <sheet name="Source" sheetId="11" r:id="rId6"/>
     <sheet name="U" sheetId="4" r:id="rId7"/>
-    <sheet name="CL0" sheetId="2" r:id="rId8"/>
-    <sheet name="CL1" sheetId="3" r:id="rId9"/>
-    <sheet name="CL2" sheetId="5" r:id="rId10"/>
-    <sheet name="CL3" sheetId="6" r:id="rId11"/>
-    <sheet name="CL4" sheetId="13" r:id="rId12"/>
+    <sheet name="L0" sheetId="2" r:id="rId8"/>
+    <sheet name="L1" sheetId="3" r:id="rId9"/>
+    <sheet name="L2" sheetId="5" r:id="rId10"/>
+    <sheet name="L3" sheetId="6" r:id="rId11"/>
+    <sheet name="L4" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="338">
   <si>
     <t>A dynamic, highly adaptable, programming language. (Currently only a concept)</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Unissembly</t>
-  </si>
-  <si>
-    <t>Unissembly - Universal Assembler (Imperative). A universal assembly language intended to be human comprehendable and easy on the eyes. Has different levels for abstraction support. (Ranging from 1:1 statement execution to multi-statement abstraction, statements are explicitly sub-categorized by their level of abstraction from direct opcodes) (Must have at least one IR-Framework or Assembler installed for a compatible Alias Set) (Essentially acts a writtable intermediary, pure data types only)</t>
   </si>
   <si>
     <t xml:space="preserve">Compiler </t>
@@ -1090,9 +1087,6 @@
     <t>Provides the owning scope of a symbol associated with a heap allocation.</t>
   </si>
   <si>
-    <t>Has some C++ like features when it comes to level of complexity associated with classes and template concepts</t>
-  </si>
-  <si>
     <t>scope.caller</t>
   </si>
   <si>
@@ -1100,6 +1094,35 @@
   </si>
   <si>
     <t>Used inconjunction with symbol.owner to do assignment of ownership across callstack.</t>
+  </si>
+  <si>
+    <t>Has some C++ like features when it comes to level of features available.</t>
+  </si>
+  <si>
+    <t>Has some functional like features when it comes to level of features available.</t>
+  </si>
+  <si>
+    <t>Unissembly - Universal Assembler (Imperative/Procedural). A universal assembly language intended to be human comprehendable and easy on the eyes. Has different levels for abstraction support. (Ranging from 1:1 statement execution to multi-statement abstraction, statements are explicitly sub-categorized by their level of abstraction from direct opcodes) (Must have at least one IR-Framework or Assembler installed for a compatible Alias Set) (Essentially acts a writtable intermediary, pure data types only)</t>
+  </si>
+  <si>
+    <t>MAS</t>
+  </si>
+  <si>
+    <t>MAS Language:
+The langauge used by the compiler and interpreter is defined in layers from 0 to 4 (so far). These layers are oriented by abstraction level / overhead provided by each layer. The layer to extent represents a different parasignm/s for programming which each have their own use cases.
+Unissembly is intended to be the "inline assembler" for the language.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intended layer usage:
+Layer 0 : Boostrapping the langauge.
+Layer 1 : Low-level drivers/kernels, and compiler / interpreter backends
+Layer 2 : C/C++, rust like langauge. (But not the more advanced features, keeps it basic)
+Layer 3 : C/C++, rust like langague. (Higher level of features / library available)
+Layer 4 : Functional paradignm language (F#, Haskell). </t>
+  </si>
+  <si>
+    <t>There is no data declaration or direct object state manipulation.
+Use layer 3 or below for that.</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1359,6 +1382,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2965,7 +2991,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3015,54 +3041,54 @@
     </row>
     <row r="8" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="32"/>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3070,10 +3096,10 @@
     </row>
     <row r="16" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3140,7 +3166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601C789F-A70D-44BB-BC27-A6660557AFE0}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
@@ -3154,24 +3180,24 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -3185,7 +3211,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
@@ -3211,7 +3237,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -3225,7 +3251,7 @@
     </row>
     <row r="10" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -3244,7 +3270,7 @@
     </row>
     <row r="11" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -3275,7 +3301,7 @@
     </row>
     <row r="13" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -3289,13 +3315,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -3317,13 +3343,13 @@
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3348,18 +3374,18 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>187</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
@@ -3381,14 +3407,14 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B27" s="46"/>
       <c r="C27" s="46"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B28" s="46"/>
       <c r="C28" s="46"/>
@@ -3405,7 +3431,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
@@ -3422,20 +3448,20 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3455,46 +3481,46 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>330</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3509,13 +3535,13 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3545,90 +3571,90 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="B52" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="B52" s="44" t="s">
-        <v>192</v>
-      </c>
       <c r="C52" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B57" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="B57" s="22" t="s">
-        <v>238</v>
-      </c>
       <c r="C57" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B59" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C59" s="21" t="s">
         <v>240</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B60" s="21" t="s">
         <v>312</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>313</v>
       </c>
       <c r="C60" s="21"/>
     </row>
@@ -3639,7 +3665,7 @@
     </row>
     <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B62" s="49"/>
       <c r="C62" s="49"/>
@@ -3672,7 +3698,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D25EFA-8543-4173-8538-C9C6D311089E}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3681,17 +3709,17 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="18" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -3715,26 +3743,62 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF95F533-B3C5-4574-91F1-62FB50CEC440}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>259</v>
-      </c>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+    </row>
+    <row r="6" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="29"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A6:I6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3743,7 +3807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BB39E1-BBDA-433B-A2A0-5DB3473C70E3}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3757,7 +3823,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11"/>
     </row>
@@ -3766,7 +3832,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="11"/>
     </row>
@@ -3793,25 +3859,25 @@
         <v>12</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>13</v>
+        <v>333</v>
       </c>
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="C7" s="11"/>
     </row>
@@ -3827,21 +3893,21 @@
     </row>
     <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="11"/>
@@ -3851,14 +3917,18 @@
       <c r="B13" s="14"/>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+    <row r="14" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
+        <v>335</v>
+      </c>
+      <c r="B14" s="50"/>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+    <row r="15" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
+        <v>336</v>
+      </c>
+      <c r="B15" s="50"/>
       <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3925,9 +3995,11 @@
       <c r="B29" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3938,7 +4010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6639ACC-0A68-4AD4-B81D-51ABE7ED177F}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3948,12 +4022,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3965,7 +4039,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF91EC3-9B9C-4C79-892E-9DBBC47CA9BC}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3975,102 +4051,102 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4083,7 +4159,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7B1279-2DF6-45E8-94EF-FF370892003B}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4094,7 +4172,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="15"/>
     </row>
@@ -4104,7 +4182,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -4114,34 +4192,34 @@
     </row>
     <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4150,18 +4228,18 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4182,22 +4260,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4209,7 +4287,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BA0CDD-8C14-436D-A306-11FCD102CD5F}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4224,7 +4304,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4237,7 +4317,7 @@
   <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+      <selection activeCell="A7" sqref="A7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4250,17 +4330,17 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>79</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -4292,7 +4372,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -4309,7 +4389,7 @@
     </row>
     <row r="7" spans="1:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
@@ -4326,7 +4406,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
@@ -4343,7 +4423,7 @@
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -4360,7 +4440,7 @@
     </row>
     <row r="10" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -4377,7 +4457,7 @@
     </row>
     <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -4394,7 +4474,7 @@
     </row>
     <row r="12" spans="1:13" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -4425,13 +4505,13 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="43"/>
@@ -4445,13 +4525,13 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
@@ -4465,13 +4545,13 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>96</v>
       </c>
       <c r="D16" s="43"/>
       <c r="E16" s="43"/>
@@ -4485,13 +4565,13 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -4505,13 +4585,13 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
@@ -4525,207 +4605,207 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>224</v>
-      </c>
       <c r="C24" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="C25" s="21" t="s">
         <v>158</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>216</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="C30" s="21" t="s">
         <v>243</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>107</v>
-      </c>
       <c r="C33" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>155</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>153</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -4735,144 +4815,144 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B39" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>187</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B40" s="46"/>
       <c r="C40" s="46"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B48" s="46"/>
       <c r="C48" s="46"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B49" s="46"/>
       <c r="C49" s="46"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B56" s="46"/>
       <c r="C56" s="46"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -4884,204 +4964,204 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="20" t="s">
         <v>121</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>122</v>
       </c>
       <c r="C62" s="20"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C63" s="20"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C64" s="20"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C65" s="20"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C67" s="20"/>
     </row>
     <row r="68" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C68" s="20"/>
     </row>
     <row r="69" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="20" t="s">
         <v>133</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>134</v>
       </c>
       <c r="C69" s="20"/>
     </row>
     <row r="70" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="20" t="s">
         <v>135</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>136</v>
       </c>
       <c r="C70" s="20"/>
     </row>
     <row r="71" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" s="20" t="s">
         <v>137</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>138</v>
       </c>
       <c r="C71" s="20"/>
     </row>
     <row r="72" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B74" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C74" s="21" t="s">
         <v>167</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="B75" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="B75" s="21" t="s">
-        <v>318</v>
-      </c>
       <c r="C75" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="C78" s="19"/>
     </row>
     <row r="79" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" s="19" t="s">
         <v>144</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>145</v>
       </c>
       <c r="C79" s="19"/>
     </row>
     <row r="80" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B80" s="19" t="s">
         <v>253</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>254</v>
       </c>
       <c r="C80" s="19"/>
     </row>
@@ -5093,96 +5173,96 @@
     <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="B83" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="B83" s="44" t="s">
-        <v>192</v>
-      </c>
       <c r="C83" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B85" s="19"/>
       <c r="C85" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="92" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B92" s="38"/>
       <c r="C92" s="38"/>
     </row>
     <row r="93" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B93" s="38"/>
       <c r="C93" s="38"/>
     </row>
     <row r="94" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B94" s="41"/>
       <c r="C94" s="41"/>
@@ -5246,17 +5326,17 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -5273,7 +5353,7 @@
     </row>
     <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -5290,7 +5370,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -5307,7 +5387,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
@@ -5324,7 +5404,7 @@
     </row>
     <row r="8" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -5341,7 +5421,7 @@
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -5358,7 +5438,7 @@
     </row>
     <row r="10" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -5375,7 +5455,7 @@
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -5392,7 +5472,7 @@
     </row>
     <row r="12" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -5424,7 +5504,7 @@
     </row>
     <row r="14" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -5440,13 +5520,13 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
@@ -5460,13 +5540,13 @@
     </row>
     <row r="16" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="C16" s="28" t="s">
         <v>210</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5476,46 +5556,46 @@
     </row>
     <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="C19" s="20" t="s">
         <v>219</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>221</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>213</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5525,89 +5605,89 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B23" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>187</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" s="46"/>
       <c r="C28" s="46"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B29" s="46"/>
       <c r="C29" s="46"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B32" s="46"/>
       <c r="C32" s="46"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -5617,248 +5697,248 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C37" s="20"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C38" s="20"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B39" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>289</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C40" s="20"/>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="20"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B44" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>284</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C46" s="20"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="20"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B48" s="20" t="s">
         <v>305</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>306</v>
       </c>
       <c r="C48" s="20"/>
     </row>
     <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B51" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="C51" s="21" t="s">
         <v>226</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="B53" s="20" t="s">
         <v>278</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>279</v>
       </c>
       <c r="C53" s="20"/>
     </row>
     <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>145</v>
       </c>
       <c r="C54" s="20"/>
     </row>
     <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="B55" s="20" t="s">
         <v>253</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>254</v>
       </c>
       <c r="C55" s="20"/>
     </row>
     <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="B56" s="29" t="s">
         <v>260</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>261</v>
       </c>
       <c r="C56" s="29"/>
     </row>
     <row r="57" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="B58" s="44" t="s">
-        <v>192</v>
-      </c>
       <c r="C58" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
@@ -5873,81 +5953,81 @@
     </row>
     <row r="61" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B63" s="19"/>
       <c r="C63" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B64" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="B64" s="22" t="s">
-        <v>238</v>
-      </c>
       <c r="C64" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B66" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66" s="27" t="s">
         <v>240</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B69" s="38"/>
       <c r="C69" s="38"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B70" s="42"/>
       <c r="C70" s="42"/>

--- a/MAS Spec.xlsx
+++ b/MAS Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project holder\MAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B93556B-1A03-41B1-8291-EFF313BE8D01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8790BFEE-4E52-4736-9C77-2C5901188EC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18120" yWindow="-12930" windowWidth="18240" windowHeight="29040" firstSheet="2" activeTab="11" xr2:uid="{A5A08AE7-B814-4604-A72D-A6C54990E20D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="9" xr2:uid="{A5A08AE7-B814-4604-A72D-A6C54990E20D}"/>
   </bookViews>
   <sheets>
     <sheet name="MAS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="354">
   <si>
     <t>A dynamic, highly adaptable, programming language. (Currently only a concept)</t>
   </si>
@@ -925,9 +925,6 @@
   </si>
   <si>
     <t>reference type</t>
-  </si>
-  <si>
-    <t>(Now templated, take into account the type's attributes)a</t>
   </si>
   <si>
     <t>(Allow for referenced value precedence over addressing in operations)</t>
@@ -1008,9 +1005,6 @@
     <t>symbol&lt;Type&gt;</t>
   </si>
   <si>
-    <t>user-defined template type.</t>
-  </si>
-  <si>
     <t>Where 'operator' is one of the defined operator symbols above.</t>
   </si>
   <si>
@@ -1030,9 +1024,6 @@
   </si>
   <si>
     <t>Its complicated due to nesting…</t>
-  </si>
-  <si>
-    <t>This is considered essentially at the around the level of features from C, with some extra ones for keeping syntax concise</t>
   </si>
   <si>
     <t>symbol.owner</t>
@@ -1123,6 +1114,68 @@
   <si>
     <t>There is no data declaration or direct object state manipulation.
 Use layer 3 or below for that.</t>
+  </si>
+  <si>
+    <t>label, goto</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>do while</t>
+  </si>
+  <si>
+    <t>while symbol : body ;</t>
+  </si>
+  <si>
+    <t>do : body : while symbol ;</t>
+  </si>
+  <si>
+    <t>Removed (Must unlock layer 1 or 0)</t>
+  </si>
+  <si>
+    <t>Executie a loop with a conditional to automatically break out of.</t>
+  </si>
+  <si>
+    <t>Execute a loop with a conditional to automatically break out of.
+(Will do the execution one time at least)</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>for symbol : symbol : body ;
+for condition : action : body ;
+for data : condition : action : body ;</t>
+  </si>
+  <si>
+    <t>Used to execute a loop, with various specifications on how loop execution is handled.</t>
+  </si>
+  <si>
+    <t>(Now generic, take into account the type's attributes)</t>
+  </si>
+  <si>
+    <t>user-defined generic type.</t>
+  </si>
+  <si>
+    <t>This is considered essentially at the around the level of features from C/C++, (But not the more advanced features, keeps it basic)</t>
+  </si>
+  <si>
+    <t>type.attributes</t>
+  </si>
+  <si>
+    <t>Provides the attributes associated with using the type (if any) (classes, etc)</t>
+  </si>
+  <si>
+    <t>trait</t>
+  </si>
+  <si>
+    <t>symbol : trait : body ;
+Type : trait</t>
+  </si>
+  <si>
+    <t>Used to define an interface, which can be used to generalize type features.
+The trait can be attributed to a Type by declaring the trait (see usage)</t>
   </si>
 </sst>
 </file>
@@ -2512,8 +2565,8 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{6C5E5D84-2AC4-4EB6-B026-2965625E1139}" name="Table42317" displayName="Table42317" ref="A17:C20" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A17:C20" xr:uid="{B96529FB-CE4B-4F3C-9833-1CA21B4CDB15}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{6C5E5D84-2AC4-4EB6-B026-2965625E1139}" name="Table42317" displayName="Table42317" ref="A17:C22" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A17:C22" xr:uid="{B96529FB-CE4B-4F3C-9833-1CA21B4CDB15}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{EDA61AB7-50A5-4058-B454-1EDBD00CA7B2}" name="Specifierss" dataDxfId="30"/>
     <tableColumn id="2" xr3:uid="{3ED00038-A82E-4420-8C94-C80D2646D192}" name="Usage" dataDxfId="29"/>
@@ -2524,8 +2577,8 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{192B16E9-AA2B-4C48-94A4-C546850B4AF1}" name="Table62418" displayName="Table62418" ref="A39:C41" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A39:C41" xr:uid="{C395172E-5B24-4FA6-81B4-F7A850F644F3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{192B16E9-AA2B-4C48-94A4-C546850B4AF1}" name="Table62418" displayName="Table62418" ref="A41:C44" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A41:C44" xr:uid="{C395172E-5B24-4FA6-81B4-F7A850F644F3}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1A3A8958-7CE9-4FFD-A4FD-7E2DE303E6AF}" name="Members" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{FEED67A6-E2FA-4F43-ABCB-8B4C47D323BD}" name="Brief" dataDxfId="24"/>
@@ -2548,8 +2601,8 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{730E2DE3-DFB5-414A-BDF2-1857CB8A6143}" name="Table72519" displayName="Table72519" ref="A35:C38" totalsRowShown="0" headerRowDxfId="20">
-  <autoFilter ref="A35:C38" xr:uid="{94258663-704B-45AB-8BC6-E651B94EEEF1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{730E2DE3-DFB5-414A-BDF2-1857CB8A6143}" name="Table72519" displayName="Table72519" ref="A37:C40" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A37:C40" xr:uid="{94258663-704B-45AB-8BC6-E651B94EEEF1}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CAAB3C64-E4B7-48EE-8C90-35AA5F00194E}" name="Types"/>
     <tableColumn id="2" xr3:uid="{1E12A8A2-5B0E-4A18-8ED1-090A246CB328}" name="Brief"/>
@@ -2560,8 +2613,8 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{0BE030CB-606B-482F-8485-E39C92958FDC}" name="Table102630" displayName="Table102630" ref="A22:C32" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A22:C32" xr:uid="{E324C9B5-CF8E-4FE9-8F37-84A663192F89}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{0BE030CB-606B-482F-8485-E39C92958FDC}" name="Table102630" displayName="Table102630" ref="A24:C34" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A24:C34" xr:uid="{E324C9B5-CF8E-4FE9-8F37-84A663192F89}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{ACE0602A-120C-4BAC-B33E-62F46CA1CF10}" name="Symbol Declaration" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{694657DF-6FBD-422D-9727-E1B483B7D18C}" name="_" dataDxfId="18"/>
@@ -2572,8 +2625,8 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{23D00811-874A-441F-A1C9-F7B25114C85D}" name="Table122731" displayName="Table122731" ref="A42:C44" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A42:C44" xr:uid="{0E83EAC3-71AC-4B57-9BE1-B1A3E5E18259}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{23D00811-874A-441F-A1C9-F7B25114C85D}" name="Table122731" displayName="Table122731" ref="A45:C47" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A45:C47" xr:uid="{0E83EAC3-71AC-4B57-9BE1-B1A3E5E18259}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CA072D74-0ADC-4B15-9DD1-F9D45730AAE0}" name="Functions" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{662FF820-B0D3-4652-964F-FB90D1C15996}" name="Usage" dataDxfId="13"/>
@@ -2584,8 +2637,8 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{1C75F9E2-A5A6-46DF-B25F-655FC7B38263}" name="Table192832" displayName="Table192832" ref="A45:C49" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A45:C49" xr:uid="{15838596-FD90-4362-85AE-4B3162498C88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{1C75F9E2-A5A6-46DF-B25F-655FC7B38263}" name="Table192832" displayName="Table192832" ref="A48:C52" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A48:C52" xr:uid="{15838596-FD90-4362-85AE-4B3162498C88}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A5C0E435-7568-4102-9570-C3F3868D1CFA}" name="Literals" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{BAB653D8-1CBF-4B97-B3B6-971BFD733DDE}" name="Brief" dataDxfId="8"/>
@@ -2596,8 +2649,8 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{8DBEE429-E0E5-4F2A-B4E5-E279A3C201F2}" name="Table202933" displayName="Table202933" ref="A52:C62" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A52:C62" xr:uid="{FB8FA1B5-7FF9-4B84-8BE4-A40FC74FE472}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{8DBEE429-E0E5-4F2A-B4E5-E279A3C201F2}" name="Table202933" displayName="Table202933" ref="A55:C65" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A55:C65" xr:uid="{FB8FA1B5-7FF9-4B84-8BE4-A40FC74FE472}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FF602193-0D5B-4B33-89DC-C6AC60258D09}" name="Operators" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{FB6F3133-0F6E-4A20-883C-B3EBC78F1321}" name="Usuage" dataDxfId="3"/>
@@ -3164,10 +3217,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601C789F-A70D-44BB-BC27-A6660557AFE0}">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3190,7 +3243,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -3237,7 +3290,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -3251,7 +3304,7 @@
     </row>
     <row r="10" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -3270,7 +3323,7 @@
     </row>
     <row r="11" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -3353,52 +3406,80 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="A18" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A19" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B24" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C24" s="20" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
@@ -3406,35 +3487,33 @@
       <c r="C26" s="20"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
@@ -3442,37 +3521,39 @@
       <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
+      <c r="A33" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B37" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C37" s="20" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38"/>
@@ -3480,195 +3561,214 @@
       <c r="C38"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B41" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C41" s="20" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="B40" s="21" t="s">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C42" s="20"/>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C44" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="C40" s="21" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B45" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C45" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-    </row>
-    <row r="44" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+    <row r="46" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+    </row>
+    <row r="47" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B48" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C48" s="20" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-    </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="44" t="s">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B55" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="C52" s="44" t="s">
+      <c r="C55" s="44" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="39" t="s">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
+    <row r="60" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B60" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C60" s="19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
+    <row r="61" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B61" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C61" s="21" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
+    <row r="62" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B62" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C62" s="21" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="C60" s="21"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-    </row>
-    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="49" t="s">
-        <v>324</v>
-      </c>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C63" s="21"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+    </row>
+    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="B65" s="49"/>
+      <c r="C65" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3699,7 +3799,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L4"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3719,7 +3819,7 @@
     </row>
     <row r="4" spans="1:12" s="18" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -3745,7 +3845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF95F533-B3C5-4574-91F1-62FB50CEC440}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -3766,7 +3866,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -3782,7 +3882,7 @@
     </row>
     <row r="6" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -3808,7 +3908,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B30"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3859,7 +3959,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C5" s="11"/>
     </row>
@@ -3919,14 +4019,14 @@
     </row>
     <row r="14" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B14" s="50"/>
       <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="11"/>
@@ -4317,7 +4417,7 @@
   <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:M7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4330,7 +4430,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4340,7 +4440,7 @@
     </row>
     <row r="4" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -4389,7 +4489,7 @@
     </row>
     <row r="7" spans="1:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
@@ -4457,7 +4557,7 @@
     </row>
     <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -4474,7 +4574,7 @@
     </row>
     <row r="12" spans="1:13" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -4910,7 +5010,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -5012,7 +5112,7 @@
         <v>125</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C65" s="20"/>
     </row>
@@ -5091,7 +5191,7 @@
         <v>165</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5107,24 +5207,24 @@
     </row>
     <row r="75" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C75" s="21" t="s">
         <v>316</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="B76" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="B76" s="21" t="s">
-        <v>321</v>
-      </c>
       <c r="C76" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5248,21 +5348,21 @@
     <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="92" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="37" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B92" s="38"/>
       <c r="C92" s="38"/>
     </row>
     <row r="93" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="38" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B93" s="38"/>
       <c r="C93" s="38"/>
     </row>
     <row r="94" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B94" s="41"/>
       <c r="C94" s="41"/>
@@ -5314,7 +5414,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349BFA30-CCAE-439E-9B33-6250609A724A}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5353,7 +5455,7 @@
     </row>
     <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -5370,7 +5472,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -5472,7 +5574,7 @@
     </row>
     <row r="12" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -5718,16 +5820,16 @@
         <v>245</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C37" s="20"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C38" s="20"/>
     </row>
@@ -5736,24 +5838,24 @@
         <v>246</v>
       </c>
       <c r="B39" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>288</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C40" s="20"/>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>127</v>
@@ -5768,7 +5870,7 @@
         <v>126</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5779,7 +5881,7 @@
         <v>280</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5787,10 +5889,10 @@
         <v>250</v>
       </c>
       <c r="B44" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>283</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -5806,7 +5908,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>251</v>
@@ -5824,10 +5926,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="C48" s="20"/>
     </row>
@@ -5844,13 +5946,13 @@
     </row>
     <row r="50" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>227</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6013,14 +6115,14 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="29" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B69" s="38"/>
       <c r="C69" s="38"/>

--- a/MAS Spec.xlsx
+++ b/MAS Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project holder\MAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8790BFEE-4E52-4736-9C77-2C5901188EC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8A497D-3B0E-4ED8-8F2D-B57FD4E98FF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="9" xr2:uid="{A5A08AE7-B814-4604-A72D-A6C54990E20D}"/>
+    <workbookView xWindow="-18120" yWindow="-12930" windowWidth="18240" windowHeight="29040" firstSheet="1" activeTab="7" xr2:uid="{199B8396-7D65-4AE8-B2F5-D290715F0B28}"/>
   </bookViews>
   <sheets>
     <sheet name="MAS" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="L2" sheetId="5" r:id="rId10"/>
     <sheet name="L3" sheetId="6" r:id="rId11"/>
     <sheet name="L4" sheetId="13" r:id="rId12"/>
+    <sheet name="Notes" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="430">
   <si>
     <t>A dynamic, highly adaptable, programming language. (Currently only a concept)</t>
   </si>
@@ -511,9 +512,6 @@
     <t>goto</t>
   </si>
   <si>
-    <t>Used to unconditional jump to a labeled execution statement</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
@@ -530,9 +528,6 @@
   </si>
   <si>
     <t>volatile</t>
-  </si>
-  <si>
-    <t>label : symbol : Statement</t>
   </si>
   <si>
     <t>Used to specify that operations on the datatype should not be optimized.</t>
@@ -749,9 +744,6 @@
   </si>
   <si>
     <t>allocate(uDM) : symbol</t>
-  </si>
-  <si>
-    <t>goto : LabeledSymbol ;</t>
   </si>
   <si>
     <t>Symbol : volatile Type ;</t>
@@ -1029,15 +1021,6 @@
     <t>symbol.owner</t>
   </si>
   <si>
-    <t xml:space="preserve">Casting can done by just assigning a symbol to another symbol datatype. The data at the location will be treated without constraint or consideration for the size change at the location (a warning will be issued by the compiler if the cast does not match alignment or size of datatype). If you rather do an explicit cast use the specifier, but those only work if there is a function defined for it (you must specify there is no bultin supoort)
-There is no restriction on how the user names a symbol, type, function, etc. So long as its seprated by the appropriate statement tokens its fair game (so long as the compiler supports the utf width).
-All operators, specifiers, builtins, are case sensitive (they should also all be lowercase)
-Memory is unsafe as well as the indirection builtin types are as free as they are in the c language. Memory also must be manually managed. (This includes the stack not just the heap)
-The allocate and deallocate specifiers can be overloaded using alias or you can assign a allocator attribute to an alternative symbol to be used with a heap body.
-Right now concurrency hasn’t been designed.  
-Function parameters are only restricted by the Type width, everything else goes. </t>
-  </si>
-  <si>
     <t>push</t>
   </si>
   <si>
@@ -1054,15 +1037,6 @@
   </si>
   <si>
     <t>pop : symbol</t>
-  </si>
-  <si>
-    <t>Memory is still unsafe as well as the indirection builtin types are as free as they are in the c language. 
-Memory also must be manually managed for the heap (The stack now automatically pops between functions)
-The allocate and deallocate specifiers can be overloaded using alias or you can assign a allocator attribute to an alternative symbol to be used with a heap body.</t>
-  </si>
-  <si>
-    <t>Memory in the heap is now automatically freed at end of the owning scope. (There is now an owning scope associated with heap allocations)
-(To get manual , unlock layer 1)</t>
   </si>
   <si>
     <t>Note: All builtin ISA arithmetic type operators can be overloaded. (It’s the same as it was with layer 1)</t>
@@ -1094,9 +1068,6 @@
   </si>
   <si>
     <t>Unissembly - Universal Assembler (Imperative/Procedural). A universal assembly language intended to be human comprehendable and easy on the eyes. Has different levels for abstraction support. (Ranging from 1:1 statement execution to multi-statement abstraction, statements are explicitly sub-categorized by their level of abstraction from direct opcodes) (Must have at least one IR-Framework or Assembler installed for a compatible Alias Set) (Essentially acts a writtable intermediary, pure data types only)</t>
-  </si>
-  <si>
-    <t>MAS</t>
   </si>
   <si>
     <t>MAS Language:
@@ -1119,18 +1090,6 @@
     <t>label, goto</t>
   </si>
   <si>
-    <t>while</t>
-  </si>
-  <si>
-    <t>do while</t>
-  </si>
-  <si>
-    <t>while symbol : body ;</t>
-  </si>
-  <si>
-    <t>do : body : while symbol ;</t>
-  </si>
-  <si>
     <t>Removed (Must unlock layer 1 or 0)</t>
   </si>
   <si>
@@ -1141,14 +1100,6 @@
 (Will do the execution one time at least)</t>
   </si>
   <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>for symbol : symbol : body ;
-for condition : action : body ;
-for data : condition : action : body ;</t>
-  </si>
-  <si>
     <t>Used to execute a loop, with various specifications on how loop execution is handled.</t>
   </si>
   <si>
@@ -1176,13 +1127,302 @@
   <si>
     <t>Used to define an interface, which can be used to generalize type features.
 The trait can be attributed to a Type by declaring the trait (see usage)</t>
+  </si>
+  <si>
+    <t>push, pop</t>
+  </si>
+  <si>
+    <t>Removed (must unlock layer 0)</t>
+  </si>
+  <si>
+    <t>Removed(Must unlock layer 1)</t>
+  </si>
+  <si>
+    <t>The heap automatically calls deallocate for a symbol. (Will throw an error if one is not defined forit.</t>
+  </si>
+  <si>
+    <t>goto : LabeledSymbol ;
+goto : LabeledSymbol + # ;</t>
+  </si>
+  <si>
+    <t>Used to unconditional jump to a labeled execution statement
+An offset can be provided to to to a statement after a labeled statement</t>
+  </si>
+  <si>
+    <t>The stack is now automatically handled between procedure calls.</t>
+  </si>
+  <si>
+    <t>symbol.position</t>
+  </si>
+  <si>
+    <t>Indicates at which member position the symbol is located at for a type</t>
+  </si>
+  <si>
+    <t>scope.stack</t>
+  </si>
+  <si>
+    <t>caller.stack</t>
+  </si>
+  <si>
+    <t>Used to refer to the caller's stack</t>
+  </si>
+  <si>
+    <t>Used to refer to the stack of the currently executing procedure</t>
+  </si>
+  <si>
+    <t>Removed (Must unlock a previous layer)</t>
+  </si>
+  <si>
+    <t>loop conditoon</t>
+  </si>
+  <si>
+    <t>do : loop condition</t>
+  </si>
+  <si>
+    <t>loop for format</t>
+  </si>
+  <si>
+    <t>All loops are have some sort of rule to their execution in this layer.</t>
+  </si>
+  <si>
+    <t>loop conditon : body ;</t>
+  </si>
+  <si>
+    <t>do : body : loop condition ;</t>
+  </si>
+  <si>
+    <t>loop member : symbol : body ;
+loop condition : action : body ;
+loop data : condition : action :
+body 
+;</t>
+  </si>
+  <si>
+    <t>Null indirections are no longer allowed.</t>
+  </si>
+  <si>
+    <t>Functions can return multiple values</t>
+  </si>
+  <si>
+    <t>Indirections are handled in the backend. References are the only allowed indirection</t>
+  </si>
+  <si>
+    <t>scope, caller.stack</t>
+  </si>
+  <si>
+    <t>Removed (Must unlock with previous layer)</t>
+  </si>
+  <si>
+    <t>The stack is handled in the backend now, so access to these is not good.</t>
+  </si>
+  <si>
+    <t>MAS Language</t>
+  </si>
+  <si>
+    <t>MAS Langauge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casting can done by just assigning a symbol to another symbol datatype. The data at the location will be treated without constraint or consideration for the size change at the location (a warning will be issued by the compiler if the cast does not match alignment or size of datatype). If you rather do an explicit cast use the specifier, but those only work if there is a function defined for it (you must specify there is no bultin supoort)
+There is no restriction on how the user names a symbol, type, function, etc. So long as its seprated by the appropriate statement tokens its fair game (so long as the compiler supports the utf width).
+All operators, specifiers, builtins, are case sensitive (they should also all be lowercase)
+Memory is unsafe, indirection operation is unrestricted.
+Memory also must be manually managed. (This includes the stack not just the heap)
+The allocate and deallocate specifiers can be overloaded using alias or you can assign a allocator attribute to an alternative symbol to be used with a heap body.
+All data is by default mutable. To specify it to not be use the ro specifier.
+Right now concurrency hasn’t been designed.  
+Function parameters are only restricted by the Type width, everything else goes. </t>
+  </si>
+  <si>
+    <t>By default memory is readonly. To make it mutable, use the mut specifier.
+Memory is unsafe, indirection operation is unrestricted.
+Memory also must be manually managed for the heap (The stack now automatically pops between functions)
+The allocate and deallocate specifiers can be overloaded using alias or you can assign a allocator attribute to an alternative symbol to be used with a heap body.</t>
+  </si>
+  <si>
+    <t>mut</t>
+  </si>
+  <si>
+    <t>symbol : mut Type : body ;</t>
+  </si>
+  <si>
+    <t>Specify a symbol as having a mutable value. 
+(Can also be selectively applied to only specific members of a Type)</t>
+  </si>
+  <si>
+    <t>Memory in the heap is now automatically freed at end of the owning scope. (There is now an owning scope associated with heap allocations)
+(To get manual , unlock layer 1)
+By default memory is readonly. To make it mutable, use the mut specifier. (Exception: Indirection Types (ptr, ref) )</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Parsing rules?</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>spec</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>literal</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t>::</t>
+  </si>
+  <si>
+    <t>Statement bleeds to other</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Some studies…</t>
+  </si>
+  <si>
+    <t>symbols must always be in a sector</t>
+  </si>
+  <si>
+    <t>symbols must always be involved in an action</t>
+  </si>
+  <si>
+    <t>Symbol Actions:</t>
+  </si>
+  <si>
+    <t>declaration</t>
+  </si>
+  <si>
+    <t>symbol : ..</t>
+  </si>
+  <si>
+    <t>symbols are identified as a symbol if they are in the symbol 
+dictionary or the token is not identified as a builtin token</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>symbol op ..</t>
+  </si>
+  <si>
+    <t>op symbol ..</t>
+  </si>
+  <si>
+    <t>operators can only interact with symbols</t>
+  </si>
+  <si>
+    <t>declarations…</t>
+  </si>
+  <si>
+    <t>symbols can have declarations which require bodies to elaborate upon them…</t>
+  </si>
+  <si>
+    <t>symbol : struct : body ;</t>
+  </si>
+  <si>
+    <t>symbol : enum : body ;</t>
+  </si>
+  <si>
+    <t>label symbol : Statement</t>
+  </si>
+  <si>
+    <t>symbol : trait : body ;</t>
+  </si>
+  <si>
+    <t>specifiers ususally act as an attribute to another token (but goto, ret, break, continue are actions...)</t>
+  </si>
+  <si>
+    <t>sectors need a symbol eventually. They will always produce a body.</t>
+  </si>
+  <si>
+    <t>symbol () -&gt; Type</t>
+  </si>
+  <si>
+    <t>(symbol) act as a namespace for a scope. They optionally can also be an actual type</t>
+  </si>
+  <si>
+    <t>They will automatically have the ability to refer to member symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(param : symbol) are used to indicate arguments of a function symbol, but also </t>
+  </si>
+  <si>
+    <t>can act as a sector to define a set of symbols that use the similar set of arguments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(self : symbol) is unqiue pattern that </t>
+  </si>
+  <si>
+    <t>will allow for treating the function as an oo member with direct access to type member object instances</t>
+  </si>
+  <si>
+    <t>Thesee kinds of specifiers can be stacked</t>
+  </si>
+  <si>
+    <t>A symbol in the body would end up having the following signature…</t>
+  </si>
+  <si>
+    <t>fn : (symbol) : (self : symbol) : (param : symbol) : body ; ; ; ; is legal</t>
+  </si>
+  <si>
+    <t>fn:: symbol:: bodySymbol (self : symbol, param : symbol) -&gt; Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">they for sure cannot stand on their own, they need at least a sector to work. </t>
+  </si>
+  <si>
+    <t>They must always be within a sector, as such they act like a symbol bundler or symbol extension.</t>
+  </si>
+  <si>
+    <t>I believe these should only exist in an fn scope, but maybe they have some use in another sector…</t>
+  </si>
+  <si>
+    <t>: body ; is a universal begin and end.</t>
+  </si>
+  <si>
+    <t>symbol :..
+Symbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This pattern is problematic as without a ;, the only way to know its an end of statement is if </t>
+  </si>
+  <si>
+    <t>the symbol is not a specifier, a type, or not part of an operation…</t>
+  </si>
+  <si>
+    <t>An operation will always require a left or right symbol</t>
+  </si>
+  <si>
+    <t>the left of an operation must always have an assignment (except for ++ or --)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1254,8 +1494,29 @@
       <name val="Fira Code"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1280,8 +1541,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1289,11 +1565,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1378,6 +1672,36 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed" indent="1"/>
     </xf>
@@ -1400,50 +1724,71 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="3" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="119">
+  <dxfs count="118">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1466,7 +1811,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="Fira Code"/>
         <family val="3"/>
@@ -1511,7 +1856,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Fira Code"/>
         <family val="3"/>
@@ -1581,6 +1926,48 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1637,7 +2024,7 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1651,21 +2038,7 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1690,51 +2063,12 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color theme="1"/>
         <name val="Fira Code"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1758,7 +2092,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="Fira Code"/>
         <family val="3"/>
@@ -1788,7 +2122,272 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Fira Code"/>
         <family val="3"/>
@@ -1819,6 +2418,52 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Fira Code"/>
         <family val="3"/>
         <scheme val="none"/>
@@ -1882,9 +2527,32 @@
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1897,6 +2565,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1925,6 +2596,48 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Fira Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2027,384 +2740,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Fira Code"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF222222"/>
@@ -2434,10 +2769,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="4" xr9:uid="{EED84AA4-4A90-427B-A9D8-F29706D73739}">
-      <tableStyleElement type="wholeTable" dxfId="118"/>
-      <tableStyleElement type="headerRow" dxfId="117"/>
-      <tableStyleElement type="firstRowStripe" dxfId="116"/>
-      <tableStyleElement type="secondRowStripe" dxfId="115"/>
+      <tableStyleElement type="wholeTable" dxfId="117"/>
+      <tableStyleElement type="headerRow" dxfId="116"/>
+      <tableStyleElement type="firstRowStripe" dxfId="115"/>
+      <tableStyleElement type="secondRowStripe" dxfId="114"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2457,144 +2792,144 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8221EB5-F5DE-42C5-BD2A-A4193CB57630}" name="Table1" displayName="Table1" ref="A14:C25" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
-  <autoFilter ref="A14:C25" xr:uid="{8A88DB68-19AB-4B4C-968A-11720E169DE1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8221EB5-F5DE-42C5-BD2A-A4193CB57630}" name="Table1" displayName="Table1" ref="A14:C23" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+  <autoFilter ref="A14:C23" xr:uid="{8A88DB68-19AB-4B4C-968A-11720E169DE1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{751FFE96-0642-4126-99DE-8F0D157E6825}" name="Sectors" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{71AD3934-3564-4523-B297-7BE35ADA4F25}" name="Usage" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{E3EE9372-3C6F-42F7-BDB1-5090B39632DB}" name="Brief" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{751FFE96-0642-4126-99DE-8F0D157E6825}" name="Sectors" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{71AD3934-3564-4523-B297-7BE35ADA4F25}" name="Usage" dataDxfId="110"/>
+    <tableColumn id="3" xr3:uid="{E3EE9372-3C6F-42F7-BDB1-5090B39632DB}" name="Brief" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{C079B5A1-95F8-4F8C-B948-57E3050BA5D4}" name="Table423" displayName="Table423" ref="A18:C21" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
-  <autoFilter ref="A18:C21" xr:uid="{3CA37628-F903-4E05-AA13-F9FF20B25BA4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{C079B5A1-95F8-4F8C-B948-57E3050BA5D4}" name="Table423" displayName="Table423" ref="A20:C24" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+  <autoFilter ref="A20:C24" xr:uid="{3CA37628-F903-4E05-AA13-F9FF20B25BA4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BBC41DF8-D354-40AB-90D6-43FEFCF70071}" name="Specifierss" dataDxfId="109"/>
-    <tableColumn id="2" xr3:uid="{27073070-DE84-40CC-92E3-823101BE1FFB}" name="Usage" dataDxfId="108"/>
-    <tableColumn id="3" xr3:uid="{EACEC5BC-2774-491A-B877-E8C9E5944DD3}" name="Brief" dataDxfId="107"/>
+    <tableColumn id="1" xr3:uid="{BBC41DF8-D354-40AB-90D6-43FEFCF70071}" name="Specifierss" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{27073070-DE84-40CC-92E3-823101BE1FFB}" name="Usage" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{EACEC5BC-2774-491A-B877-E8C9E5944DD3}" name="Brief" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{5F92561C-1F90-456A-AD00-A848E85631D6}" name="Table624" displayName="Table624" ref="A45:C48" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
-  <autoFilter ref="A45:C48" xr:uid="{C881E9E8-F2AD-447B-8CA5-2AF22196975F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{5F92561C-1F90-456A-AD00-A848E85631D6}" name="Table624" displayName="Table624" ref="A49:C53" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+  <autoFilter ref="A49:C53" xr:uid="{C881E9E8-F2AD-447B-8CA5-2AF22196975F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BBD90EC4-BB6C-4C8C-A820-C64956212497}" name="Members" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{9D58CD7D-4B65-4BC9-BDD4-0FE8007A99E5}" name="Brief" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{EB07DBE4-56D7-402A-9935-C5D944EA811D}" name="_" dataDxfId="102"/>
+    <tableColumn id="1" xr3:uid="{BBD90EC4-BB6C-4C8C-A820-C64956212497}" name="Members" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{9D58CD7D-4B65-4BC9-BDD4-0FE8007A99E5}" name="Brief" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{EB07DBE4-56D7-402A-9935-C5D944EA811D}" name="_" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D8BBBFE9-0F1F-4CDF-B1D7-99449821AEBE}" name="Table725" displayName="Table725" ref="A36:C44" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
-  <autoFilter ref="A36:C44" xr:uid="{866E55DA-034A-491F-BCF7-85E2420605BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D8BBBFE9-0F1F-4CDF-B1D7-99449821AEBE}" name="Table725" displayName="Table725" ref="A39:C48" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+  <autoFilter ref="A39:C48" xr:uid="{866E55DA-034A-491F-BCF7-85E2420605BA}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{312DCDBB-AE85-4D3B-B868-D568136E9DDB}" name="Types" dataDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{DE1F0BB5-D794-46D8-956C-71665599FA58}" name="Brief" dataDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{A9511E96-27B9-493D-B5A8-075837052CC8}" name="_" dataDxfId="97"/>
+    <tableColumn id="1" xr3:uid="{312DCDBB-AE85-4D3B-B868-D568136E9DDB}" name="Types" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{DE1F0BB5-D794-46D8-956C-71665599FA58}" name="Brief" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{A9511E96-27B9-493D-B5A8-075837052CC8}" name="_" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{5C41F4F1-AE4B-4C02-ACDE-771C12E7F59B}" name="Table1026" displayName="Table1026" ref="A23:C33" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
-  <autoFilter ref="A23:C33" xr:uid="{7EEDCE1A-2B88-4DFF-B845-F0567DC8C077}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{5C41F4F1-AE4B-4C02-ACDE-771C12E7F59B}" name="Table1026" displayName="Table1026" ref="A26:C36" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+  <autoFilter ref="A26:C36" xr:uid="{7EEDCE1A-2B88-4DFF-B845-F0567DC8C077}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0830BAA5-170C-42AB-A70E-E7534FAB72BE}" name="Symbol Declaration" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{7117BDC5-2752-4E71-A5FD-B4C65A17F096}" name="_" dataDxfId="93"/>
-    <tableColumn id="3" xr3:uid="{CF6FA86F-D0EE-4314-B0CE-9A0F85331BF7}" name="_2" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{0830BAA5-170C-42AB-A70E-E7534FAB72BE}" name="Symbol Declaration" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{7117BDC5-2752-4E71-A5FD-B4C65A17F096}" name="_" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{CF6FA86F-D0EE-4314-B0CE-9A0F85331BF7}" name="_2" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{2A08B477-2CCA-425C-9E36-51C6D41B9BB5}" name="Table1227" displayName="Table1227" ref="A49:C51" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
-  <autoFilter ref="A49:C51" xr:uid="{C0379C44-9F8B-4DF0-AEA2-3FC638B77789}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{2A08B477-2CCA-425C-9E36-51C6D41B9BB5}" name="Table1227" displayName="Table1227" ref="A54:C57" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+  <autoFilter ref="A54:C57" xr:uid="{C0379C44-9F8B-4DF0-AEA2-3FC638B77789}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1A9F6BD7-9833-4775-866A-30E4717FD2DC}" name="Functions" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{8A3A0DD4-8CFD-4D8A-80C1-13C9462E61F0}" name="Usage" dataDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{3AAA881B-D9FC-47AD-ADCB-ADA6D41C42DC}" name="Brief" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{1A9F6BD7-9833-4775-866A-30E4717FD2DC}" name="Functions" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{8A3A0DD4-8CFD-4D8A-80C1-13C9462E61F0}" name="Usage" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{3AAA881B-D9FC-47AD-ADCB-ADA6D41C42DC}" name="Brief" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F99FDF73-825E-42A7-90A3-3E51A6462DB9}" name="Table1928" displayName="Table1928" ref="A52:C56" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
-  <autoFilter ref="A52:C56" xr:uid="{09354B2E-EA17-446C-915F-26293A952F3B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F99FDF73-825E-42A7-90A3-3E51A6462DB9}" name="Table1928" displayName="Table1928" ref="A58:C62" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A58:C62" xr:uid="{09354B2E-EA17-446C-915F-26293A952F3B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{07058EB1-BAE2-490C-9AC8-65464543B5A6}" name="Literals" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{93FDE79D-B8E4-45E3-BF26-2C2D2F288626}" name="Brief" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{0FCCB748-7E3A-4648-9423-774D63C6AB25}" name="_ Default literals can be changed  for #, #.#, ‘’, and “” individually." dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{07058EB1-BAE2-490C-9AC8-65464543B5A6}" name="Literals" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{93FDE79D-B8E4-45E3-BF26-2C2D2F288626}" name="Brief" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{0FCCB748-7E3A-4648-9423-774D63C6AB25}" name="_ Default literals can be changed  for #, #.#, ‘’, and “” individually." dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{68729C49-45D5-4F2F-BA15-E0B7B0995610}" name="Table2029" displayName="Table2029" ref="A58:C66" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
-  <autoFilter ref="A58:C66" xr:uid="{390A96E2-2F7B-4D96-B65E-DE1A07AB23FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{68729C49-45D5-4F2F-BA15-E0B7B0995610}" name="Table2029" displayName="Table2029" ref="A64:C72" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A64:C72" xr:uid="{390A96E2-2F7B-4D96-B65E-DE1A07AB23FD}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E48861ED-A4C7-4DC9-8D78-99DF2B16E271}" name="Operators" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{E012A374-9B90-4F06-A405-B2ECC5B00013}" name="Usuage" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{117B044A-0EBD-4F57-B464-836948777098}" name="Brief" dataDxfId="77"/>
+    <tableColumn id="1" xr3:uid="{E48861ED-A4C7-4DC9-8D78-99DF2B16E271}" name="Operators" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{E012A374-9B90-4F06-A405-B2ECC5B00013}" name="Usuage" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{117B044A-0EBD-4F57-B464-836948777098}" name="Brief" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{55191E53-751C-4808-A677-7F7CBBB64889}" name="Table12216" displayName="Table12216" ref="A14:C15" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A14:C15" xr:uid="{B6E0847B-0ACD-4E0D-8F58-463D171DB668}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{55191E53-751C-4808-A677-7F7CBBB64889}" name="Table12216" displayName="Table12216" ref="A14:C19" totalsRowShown="0" headerRowDxfId="34">
+  <autoFilter ref="A14:C19" xr:uid="{B6E0847B-0ACD-4E0D-8F58-463D171DB668}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{38E4526C-2A54-4C2A-8135-00405EDB15E5}" name="Sectors" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{8D056591-AC71-4CC1-94A7-71D1E865DB23}" name="Usage" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{E741E63B-E7B8-40AE-86BA-FDFA3D048511}" name="Brief" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{38E4526C-2A54-4C2A-8135-00405EDB15E5}" name="Sectors" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{8D056591-AC71-4CC1-94A7-71D1E865DB23}" name="Usage" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{E741E63B-E7B8-40AE-86BA-FDFA3D048511}" name="Brief" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{6C5E5D84-2AC4-4EB6-B026-2965625E1139}" name="Table42317" displayName="Table42317" ref="A17:C22" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A17:C22" xr:uid="{B96529FB-CE4B-4F3C-9833-1CA21B4CDB15}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{6C5E5D84-2AC4-4EB6-B026-2965625E1139}" name="Table42317" displayName="Table42317" ref="A20:C22" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A20:C22" xr:uid="{B96529FB-CE4B-4F3C-9833-1CA21B4CDB15}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EDA61AB7-50A5-4058-B454-1EDBD00CA7B2}" name="Specifierss" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{3ED00038-A82E-4420-8C94-C80D2646D192}" name="Usage" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{92AC676A-6702-4764-8E1B-B5D53BD49FC5}" name="Brief" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{EDA61AB7-50A5-4058-B454-1EDBD00CA7B2}" name="Specifierss" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{3ED00038-A82E-4420-8C94-C80D2646D192}" name="Usage" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{92AC676A-6702-4764-8E1B-B5D53BD49FC5}" name="Brief" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{192B16E9-AA2B-4C48-94A4-C546850B4AF1}" name="Table62418" displayName="Table62418" ref="A41:C44" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{192B16E9-AA2B-4C48-94A4-C546850B4AF1}" name="Table62418" displayName="Table62418" ref="A41:C44" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A41:C44" xr:uid="{C395172E-5B24-4FA6-81B4-F7A850F644F3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1A3A8958-7CE9-4FFD-A4FD-7E2DE303E6AF}" name="Members" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{FEED67A6-E2FA-4F43-ABCB-8B4C47D323BD}" name="Brief" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{C06AC32B-8407-4B4C-9BAD-B6DAAB0DA729}" name="_" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{1A3A8958-7CE9-4FFD-A4FD-7E2DE303E6AF}" name="Members" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{FEED67A6-E2FA-4F43-ABCB-8B4C47D323BD}" name="Brief" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{C06AC32B-8407-4B4C-9BAD-B6DAAB0DA729}" name="_" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69E1B3D1-3021-44E2-95A1-A5446EC84126}" name="Table4" displayName="Table4" ref="A27:C37" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
-  <autoFilter ref="A27:C37" xr:uid="{56088307-7690-4CFD-AC1E-870D6C9557D1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69E1B3D1-3021-44E2-95A1-A5446EC84126}" name="Table4" displayName="Table4" ref="A25:C35" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
+  <autoFilter ref="A25:C35" xr:uid="{56088307-7690-4CFD-AC1E-870D6C9557D1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8D16C3D0-2C0C-403C-8AB9-3B6B39184529}" name="Specifiers" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{F9CE1155-D8BD-4F21-929A-966B0855B2B2}" name="Usage" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{CFE9E412-4074-4020-A94F-7B03A2CF3421}" name="Brief" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{8D16C3D0-2C0C-403C-8AB9-3B6B39184529}" name="Specifiers" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{F9CE1155-D8BD-4F21-929A-966B0855B2B2}" name="Usage" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{CFE9E412-4074-4020-A94F-7B03A2CF3421}" name="Brief" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2613,132 +2948,132 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{0BE030CB-606B-482F-8485-E39C92958FDC}" name="Table102630" displayName="Table102630" ref="A24:C34" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{0BE030CB-606B-482F-8485-E39C92958FDC}" name="Table102630" displayName="Table102630" ref="A24:C34" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A24:C34" xr:uid="{E324C9B5-CF8E-4FE9-8F37-84A663192F89}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{ACE0602A-120C-4BAC-B33E-62F46CA1CF10}" name="Symbol Declaration" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{694657DF-6FBD-422D-9727-E1B483B7D18C}" name="_" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{76B6CE38-7465-46BA-89C2-03BD5CFBE334}" name="_2" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{ACE0602A-120C-4BAC-B33E-62F46CA1CF10}" name="Symbol Declaration" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{694657DF-6FBD-422D-9727-E1B483B7D18C}" name="_" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{76B6CE38-7465-46BA-89C2-03BD5CFBE334}" name="_2" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{23D00811-874A-441F-A1C9-F7B25114C85D}" name="Table122731" displayName="Table122731" ref="A45:C47" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A45:C47" xr:uid="{0E83EAC3-71AC-4B57-9BE1-B1A3E5E18259}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{23D00811-874A-441F-A1C9-F7B25114C85D}" name="Table122731" displayName="Table122731" ref="A45:C48" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A45:C48" xr:uid="{0E83EAC3-71AC-4B57-9BE1-B1A3E5E18259}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CA072D74-0ADC-4B15-9DD1-F9D45730AAE0}" name="Functions" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{662FF820-B0D3-4652-964F-FB90D1C15996}" name="Usage" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{C89516E2-A91C-41FC-9C1C-EF42A010CA02}" name="Brief" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{CA072D74-0ADC-4B15-9DD1-F9D45730AAE0}" name="Functions" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{662FF820-B0D3-4652-964F-FB90D1C15996}" name="Usage" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{C89516E2-A91C-41FC-9C1C-EF42A010CA02}" name="Brief" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{1C75F9E2-A5A6-46DF-B25F-655FC7B38263}" name="Table192832" displayName="Table192832" ref="A48:C52" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A48:C52" xr:uid="{15838596-FD90-4362-85AE-4B3162498C88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{1C75F9E2-A5A6-46DF-B25F-655FC7B38263}" name="Table192832" displayName="Table192832" ref="A49:C53" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A49:C53" xr:uid="{15838596-FD90-4362-85AE-4B3162498C88}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A5C0E435-7568-4102-9570-C3F3868D1CFA}" name="Literals" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{BAB653D8-1CBF-4B97-B3B6-971BFD733DDE}" name="Brief" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{D873FDFF-A0DC-4A36-BDC4-2E8723519D14}" name="_ Default literals can be changed  for #, #.#, ‘’, and “” individually." dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{A5C0E435-7568-4102-9570-C3F3868D1CFA}" name="Literals" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{BAB653D8-1CBF-4B97-B3B6-971BFD733DDE}" name="Brief" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{D873FDFF-A0DC-4A36-BDC4-2E8723519D14}" name="_ Default literals can be changed  for #, #.#, ‘’, and “” individually." dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{8DBEE429-E0E5-4F2A-B4E5-E279A3C201F2}" name="Table202933" displayName="Table202933" ref="A55:C65" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A55:C65" xr:uid="{FB8FA1B5-7FF9-4B84-8BE4-A40FC74FE472}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{8DBEE429-E0E5-4F2A-B4E5-E279A3C201F2}" name="Table202933" displayName="Table202933" ref="A56:C66" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A56:C66" xr:uid="{FB8FA1B5-7FF9-4B84-8BE4-A40FC74FE472}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FF602193-0D5B-4B33-89DC-C6AC60258D09}" name="Operators" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{FB6F3133-0F6E-4A20-883C-B3EBC78F1321}" name="Usuage" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C83DEBC0-8A6F-482C-9BDF-65219C474830}" name="Brief" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{FF602193-0D5B-4B33-89DC-C6AC60258D09}" name="Operators" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{FB6F3133-0F6E-4A20-883C-B3EBC78F1321}" name="Usuage" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C83DEBC0-8A6F-482C-9BDF-65219C474830}" name="Brief" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FC39F185-B784-4E83-85FC-53C6A3D529CC}" name="Table6" displayName="Table6" ref="A66:C71" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
-  <autoFilter ref="A66:C71" xr:uid="{F6905302-BBD2-4361-BBAD-4DB823880BE6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FC39F185-B784-4E83-85FC-53C6A3D529CC}" name="Table6" displayName="Table6" ref="A64:C72" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
+  <autoFilter ref="A64:C72" xr:uid="{F6905302-BBD2-4361-BBAD-4DB823880BE6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{611D7444-C0FF-411E-A9B7-B52B4FF9C14C}" name="Members" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{5C3C466D-850B-4F76-AB9E-9488905AE714}" name="Brief" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{EB152C3F-F05A-48CD-97BB-F90B2B56D7AA}" name="_" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{611D7444-C0FF-411E-A9B7-B52B4FF9C14C}" name="Members" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{5C3C466D-850B-4F76-AB9E-9488905AE714}" name="Brief" dataDxfId="100"/>
+    <tableColumn id="3" xr3:uid="{EB152C3F-F05A-48CD-97BB-F90B2B56D7AA}" name="_" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3265CDA0-FEAC-4BC3-8395-B2A2730CCC79}" name="Table7" displayName="Table7" ref="A61:C65" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
-  <autoFilter ref="A61:C65" xr:uid="{27137909-7DE8-48DD-A499-C8CD51178AF0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3265CDA0-FEAC-4BC3-8395-B2A2730CCC79}" name="Table7" displayName="Table7" ref="A59:C63" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
+  <autoFilter ref="A59:C63" xr:uid="{27137909-7DE8-48DD-A499-C8CD51178AF0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8039BF03-D68F-4CC7-84DA-838BE536DB86}" name="Types" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{5310CCDF-370A-49F7-A467-9CC9E31D81CB}" name="Brief" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{7FF4E887-22EC-4B3B-ADD3-B72A5EBEB921}" name="_" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{8039BF03-D68F-4CC7-84DA-838BE536DB86}" name="Types" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{5310CCDF-370A-49F7-A467-9CC9E31D81CB}" name="Brief" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{7FF4E887-22EC-4B3B-ADD3-B72A5EBEB921}" name="_" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{97C59969-36F2-4CA8-91EB-A86C7FED912A}" name="Table10" displayName="Table10" ref="A39:C58" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
-  <autoFilter ref="A39:C58" xr:uid="{6A3BD966-3E0C-4777-814B-D5BFB6747569}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{97C59969-36F2-4CA8-91EB-A86C7FED912A}" name="Table10" displayName="Table10" ref="A37:C56" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+  <autoFilter ref="A37:C56" xr:uid="{6A3BD966-3E0C-4777-814B-D5BFB6747569}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C070D8DF-DC50-4E9A-B487-A9F293CDAAEC}" name="Symbol Declaration" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{105D1A2A-D472-42FF-9C8B-30EC088229CD}" name="_" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{6B4DEF52-6C90-4179-98C7-95F13BBB64A1}" name="_2" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{C070D8DF-DC50-4E9A-B487-A9F293CDAAEC}" name="Symbol Declaration" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{105D1A2A-D472-42FF-9C8B-30EC088229CD}" name="_" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{6B4DEF52-6C90-4179-98C7-95F13BBB64A1}" name="_2" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B9A2C213-B54A-43E6-897A-3CA10271B214}" name="Table12" displayName="Table12" ref="A72:C76" totalsRowShown="0" dataDxfId="36">
-  <autoFilter ref="A72:C76" xr:uid="{247DE2B2-7606-4AB6-A53B-F417E06B87A0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B9A2C213-B54A-43E6-897A-3CA10271B214}" name="Table12" displayName="Table12" ref="A73:C77" totalsRowShown="0" dataDxfId="88">
+  <autoFilter ref="A73:C77" xr:uid="{247DE2B2-7606-4AB6-A53B-F417E06B87A0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{57E9B2F9-E7C0-488B-BA2B-8FC25EDB6732}" name="Functions" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{0BC9E605-B3B5-4791-92B1-0224425765DC}" name="Usage" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{DD06BA51-9A67-4D84-8767-7CA35090525C}" name="Brief" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{57E9B2F9-E7C0-488B-BA2B-8FC25EDB6732}" name="Functions" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{0BC9E605-B3B5-4791-92B1-0224425765DC}" name="Usage" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{DD06BA51-9A67-4D84-8767-7CA35090525C}" name="Brief" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{81BF3C54-F3D4-414A-B9D3-03257DFABC20}" name="Table19" displayName="Table19" ref="A77:C80" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
-  <autoFilter ref="A77:C80" xr:uid="{33CF9CD0-9484-4D64-8287-6291076AE080}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{81BF3C54-F3D4-414A-B9D3-03257DFABC20}" name="Table19" displayName="Table19" ref="A78:C81" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+  <autoFilter ref="A78:C81" xr:uid="{33CF9CD0-9484-4D64-8287-6291076AE080}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8D11FB64-911D-4801-8F1D-50D79534BEFB}" name="Literals" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{AD8E6E3E-11DA-41A5-BFF5-F10A2F873786}" name="Brief" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{8F9D6964-EB1E-46DA-8EF3-128EA3E1058B}" name="_ Default literals can be changed  for #, #.#, ‘’, and “” individually." dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{8D11FB64-911D-4801-8F1D-50D79534BEFB}" name="Literals" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{AD8E6E3E-11DA-41A5-BFF5-F10A2F873786}" name="Brief" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{8F9D6964-EB1E-46DA-8EF3-128EA3E1058B}" name="_ Default literals can be changed  for #, #.#, ‘’, and “” individually." dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{48F782A1-5E1A-47D8-BA24-C764744A04B8}" name="Table20" displayName="Table20" ref="A83:C90" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="A83:C90" xr:uid="{B213D981-5B41-4573-8EC2-4DF8AE7C8306}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{48F782A1-5E1A-47D8-BA24-C764744A04B8}" name="Table20" displayName="Table20" ref="A84:C91" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+  <autoFilter ref="A84:C91" xr:uid="{B213D981-5B41-4573-8EC2-4DF8AE7C8306}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2205C0CB-F63E-4FCF-BC7E-1878E6029E0B}" name="Operators" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{AD7C09D2-E091-404D-B980-F948347E06E3}" name="Usuage" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{0EE06045-D26C-44D6-B583-744C1AFF7394}" name="Brief" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{2205C0CB-F63E-4FCF-BC7E-1878E6029E0B}" name="Operators" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{AD7C09D2-E091-404D-B980-F948347E06E3}" name="Usuage" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{0EE06045-D26C-44D6-B583-744C1AFF7394}" name="Brief" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{EFC039FA-5F10-4920-ADF8-EA9616614E76}" name="Table122" displayName="Table122" ref="A15:C16" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
-  <autoFilter ref="A15:C16" xr:uid="{5E07E4AE-33A2-4473-9C18-C306E8B4CBC8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{EFC039FA-5F10-4920-ADF8-EA9616614E76}" name="Table122" displayName="Table122" ref="A15:C18" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+  <autoFilter ref="A15:C18" xr:uid="{5E07E4AE-33A2-4473-9C18-C306E8B4CBC8}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C4F7DA5B-D14F-497B-AF71-33F84BE68440}" name="Sectors" dataDxfId="114"/>
-    <tableColumn id="2" xr3:uid="{E7C3F882-719C-4BCC-86A4-EFCE80E5AC53}" name="Usage" dataDxfId="113"/>
-    <tableColumn id="3" xr3:uid="{472BB7D9-72FF-440B-9BBE-0C3D1C688B9D}" name="Brief" dataDxfId="112"/>
+    <tableColumn id="1" xr3:uid="{C4F7DA5B-D14F-497B-AF71-33F84BE68440}" name="Sectors" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{E7C3F882-719C-4BCC-86A4-EFCE80E5AC53}" name="Usage" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{472BB7D9-72FF-440B-9BBE-0C3D1C688B9D}" name="Brief" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3044,7 +3379,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3056,47 +3391,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="43"/>
     </row>
     <row r="2" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="45"/>
     </row>
     <row r="4" spans="1:2" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="41"/>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="40"/>
     </row>
     <row r="7" spans="1:2" ht="294" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="41"/>
     </row>
     <row r="8" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="42"/>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -3217,11 +3552,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601C789F-A70D-44BB-BC27-A6660557AFE0}">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3233,48 +3566,48 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>78</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
+      <c r="A4" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="A6" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
+      <c r="A7" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
@@ -3289,44 +3622,44 @@
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="A9" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="29"/>
     </row>
-    <row r="10" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
+    <row r="10" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
     </row>
     <row r="11" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="A11" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -3334,11 +3667,11 @@
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
@@ -3353,11 +3686,11 @@
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="A13" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
@@ -3367,13 +3700,13 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="29"/>
@@ -3384,78 +3717,98 @@
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
+      <c r="A16" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B20" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C20" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>345</v>
-      </c>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3465,21 +3818,21 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
+      <c r="A25" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
@@ -3497,18 +3850,18 @@
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
+      <c r="A29" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
+      <c r="A30" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
@@ -3521,11 +3874,11 @@
       <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
+      <c r="A33" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
@@ -3538,11 +3891,11 @@
       <c r="C35" s="29"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
@@ -3552,7 +3905,7 @@
         <v>19</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3578,43 +3931,43 @@
         <v>19</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="C42" s="20"/>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>88</v>
@@ -3624,9 +3977,15 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
+      <c r="A46" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
@@ -3634,23 +3993,23 @@
       <c r="C47" s="21"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B49" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="20" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
+      <c r="C49" s="20" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
     </row>
@@ -3660,125 +4019,130 @@
       <c r="C51" s="20"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="B55" s="44" t="s">
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
         <v>191</v>
-      </c>
-      <c r="C55" s="44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>196</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="19" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="19" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="39" t="s">
-        <v>266</v>
+      <c r="A59" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C62" s="21" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="C63" s="21"/>
+        <v>236</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
+      <c r="A64" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="C64" s="21"/>
     </row>
     <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="49" t="s">
-        <v>321</v>
-      </c>
-      <c r="B65" s="49"/>
-      <c r="C65" s="49"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="8">
@@ -3796,11 +4160,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D25EFA-8543-4173-8538-C9C6D311089E}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3809,29 +4171,44 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="18" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
+      <c r="A4" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>363</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3845,9 +4222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF95F533-B3C5-4574-91F1-62FB50CEC440}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3861,37 +4236,37 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
+      <c r="A4" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="6" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
+      <c r="A6" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="29"/>
     </row>
   </sheetData>
@@ -3903,13 +4278,1178 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FEFD83-244A-45E8-89E9-6662545438F3}">
+  <dimension ref="B2:AC63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B3" s="54" t="s">
+        <v>391</v>
+      </c>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+    </row>
+    <row r="6" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="D6" s="63" t="s">
+        <v>389</v>
+      </c>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+    </row>
+    <row r="7" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="55" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>381</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>387</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>385</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>384</v>
+      </c>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53" t="s">
+        <v>392</v>
+      </c>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+    </row>
+    <row r="12" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="55" t="s">
+        <v>382</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>386</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>384</v>
+      </c>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53" t="s">
+        <v>393</v>
+      </c>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+    </row>
+    <row r="14" spans="2:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="53"/>
+      <c r="Q14" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+    </row>
+    <row r="15" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="55" t="s">
+        <v>382</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>386</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="P16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+    </row>
+    <row r="17" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="C17" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53" t="s">
+        <v>395</v>
+      </c>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53" t="s">
+        <v>410</v>
+      </c>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="53"/>
+    </row>
+    <row r="19" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="D19" s="60" t="s">
+        <v>380</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53" t="s">
+        <v>398</v>
+      </c>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53" t="s">
+        <v>399</v>
+      </c>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="53"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+    </row>
+    <row r="21" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="D21" s="55" t="s">
+        <v>386</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>386</v>
+      </c>
+      <c r="H21" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="I21" s="58" t="s">
+        <v>380</v>
+      </c>
+      <c r="J21" s="57" t="s">
+        <v>387</v>
+      </c>
+      <c r="K21" s="58" t="s">
+        <v>385</v>
+      </c>
+      <c r="L21" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" s="56" t="s">
+        <v>382</v>
+      </c>
+      <c r="N21" s="55" t="s">
+        <v>384</v>
+      </c>
+      <c r="P21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="P22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+    </row>
+    <row r="23" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="E23" s="58" t="s">
+        <v>380</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>388</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>380</v>
+      </c>
+      <c r="H23" s="57" t="s">
+        <v>388</v>
+      </c>
+      <c r="I23" s="58" t="s">
+        <v>380</v>
+      </c>
+      <c r="J23" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53" t="s">
+        <v>402</v>
+      </c>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+    </row>
+    <row r="24" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="D24" s="55" t="s">
+        <v>384</v>
+      </c>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53" t="s">
+        <v>403</v>
+      </c>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+    </row>
+    <row r="25" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="C25" s="56" t="s">
+        <v>384</v>
+      </c>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+    </row>
+    <row r="28" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="C28" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>380</v>
+      </c>
+      <c r="F28" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="G28" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="H28" s="56" t="s">
+        <v>384</v>
+      </c>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="53"/>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+    </row>
+    <row r="30" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="55" t="s">
+        <v>384</v>
+      </c>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53" t="s">
+        <v>412</v>
+      </c>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53" t="s">
+        <v>422</v>
+      </c>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
+    </row>
+    <row r="33" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
+    </row>
+    <row r="34" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53" t="s">
+        <v>413</v>
+      </c>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="53"/>
+      <c r="AA34" s="53"/>
+    </row>
+    <row r="35" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53" t="s">
+        <v>414</v>
+      </c>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="53"/>
+    </row>
+    <row r="36" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+    </row>
+    <row r="37" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="53"/>
+    </row>
+    <row r="38" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53" t="s">
+        <v>415</v>
+      </c>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="53"/>
+      <c r="Z38" s="53"/>
+      <c r="AA38" s="53"/>
+    </row>
+    <row r="39" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53" t="s">
+        <v>416</v>
+      </c>
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="53"/>
+      <c r="W39" s="53"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+    </row>
+    <row r="40" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53" t="s">
+        <v>423</v>
+      </c>
+      <c r="R40" s="53"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="53"/>
+      <c r="X40" s="53"/>
+      <c r="Y40" s="53"/>
+      <c r="Z40" s="53"/>
+      <c r="AA40" s="53"/>
+    </row>
+    <row r="41" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="53"/>
+      <c r="V41" s="53"/>
+      <c r="W41" s="53"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="53"/>
+      <c r="Z41" s="53"/>
+      <c r="AA41" s="53"/>
+    </row>
+    <row r="42" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="53"/>
+      <c r="AA42" s="53"/>
+    </row>
+    <row r="43" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53" t="s">
+        <v>419</v>
+      </c>
+      <c r="R43" s="53"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="53"/>
+      <c r="V43" s="53"/>
+      <c r="W43" s="53"/>
+      <c r="X43" s="53"/>
+      <c r="Y43" s="53"/>
+      <c r="Z43" s="53"/>
+      <c r="AA43" s="53"/>
+    </row>
+    <row r="45" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="65" t="s">
+        <v>418</v>
+      </c>
+      <c r="R45" s="65"/>
+      <c r="S45" s="65"/>
+      <c r="T45" s="65"/>
+      <c r="U45" s="65"/>
+      <c r="V45" s="65"/>
+      <c r="W45" s="65"/>
+      <c r="X45" s="65"/>
+      <c r="Y45" s="65"/>
+      <c r="Z45" s="65"/>
+      <c r="AA45" s="65"/>
+      <c r="AB45" s="65"/>
+      <c r="AC45" s="65"/>
+    </row>
+    <row r="46" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="N46" s="65"/>
+      <c r="O46" s="65"/>
+      <c r="P46" s="65"/>
+      <c r="Q46" s="65" t="s">
+        <v>420</v>
+      </c>
+      <c r="R46" s="65"/>
+      <c r="S46" s="65"/>
+      <c r="T46" s="65"/>
+      <c r="U46" s="65"/>
+      <c r="V46" s="65"/>
+      <c r="W46" s="65"/>
+      <c r="X46" s="65"/>
+      <c r="Y46" s="65"/>
+      <c r="Z46" s="65"/>
+      <c r="AA46" s="65"/>
+      <c r="AB46" s="65"/>
+      <c r="AC46" s="65"/>
+    </row>
+    <row r="47" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="N47" s="65"/>
+      <c r="O47" s="65"/>
+      <c r="P47" s="65"/>
+      <c r="Q47" s="65"/>
+      <c r="R47" s="65"/>
+      <c r="S47" s="65"/>
+      <c r="T47" s="65"/>
+      <c r="U47" s="65"/>
+      <c r="V47" s="65"/>
+      <c r="W47" s="65"/>
+      <c r="X47" s="65"/>
+      <c r="Y47" s="65"/>
+      <c r="Z47" s="65"/>
+      <c r="AA47" s="65"/>
+      <c r="AB47" s="65"/>
+      <c r="AC47" s="65"/>
+    </row>
+    <row r="48" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="N48" s="65"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="65"/>
+      <c r="Q48" s="65"/>
+      <c r="R48" s="65"/>
+      <c r="S48" s="65"/>
+      <c r="T48" s="65"/>
+      <c r="U48" s="65"/>
+      <c r="V48" s="65"/>
+      <c r="W48" s="65"/>
+      <c r="X48" s="65"/>
+      <c r="Y48" s="65"/>
+      <c r="Z48" s="65"/>
+      <c r="AA48" s="65"/>
+      <c r="AB48" s="65"/>
+      <c r="AC48" s="65"/>
+    </row>
+    <row r="49" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="N49" s="65"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="R49" s="65"/>
+      <c r="S49" s="65"/>
+      <c r="T49" s="65"/>
+      <c r="U49" s="65"/>
+      <c r="V49" s="65"/>
+      <c r="W49" s="65"/>
+      <c r="X49" s="65"/>
+      <c r="Y49" s="65"/>
+      <c r="Z49" s="65"/>
+      <c r="AA49" s="65"/>
+      <c r="AB49" s="65"/>
+      <c r="AC49" s="65"/>
+    </row>
+    <row r="50" spans="14:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N50" s="65"/>
+      <c r="O50" s="65"/>
+      <c r="P50" s="65"/>
+      <c r="Q50" s="66" t="s">
+        <v>425</v>
+      </c>
+      <c r="R50" s="66"/>
+      <c r="S50" s="66"/>
+      <c r="T50" s="66"/>
+      <c r="U50" s="66"/>
+      <c r="V50" s="66"/>
+      <c r="W50" s="65"/>
+      <c r="X50" s="65"/>
+      <c r="Y50" s="65"/>
+      <c r="Z50" s="65"/>
+      <c r="AA50" s="65"/>
+      <c r="AB50" s="65"/>
+      <c r="AC50" s="65"/>
+    </row>
+    <row r="51" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="N51" s="65"/>
+      <c r="O51" s="65"/>
+      <c r="P51" s="65"/>
+      <c r="Q51" s="65" t="s">
+        <v>426</v>
+      </c>
+      <c r="R51" s="65"/>
+      <c r="S51" s="65"/>
+      <c r="T51" s="65"/>
+      <c r="U51" s="65"/>
+      <c r="V51" s="65"/>
+      <c r="W51" s="65"/>
+      <c r="X51" s="65"/>
+      <c r="Y51" s="65"/>
+      <c r="Z51" s="65"/>
+      <c r="AA51" s="65"/>
+      <c r="AB51" s="65"/>
+      <c r="AC51" s="65"/>
+    </row>
+    <row r="52" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="N52" s="65"/>
+      <c r="O52" s="65"/>
+      <c r="P52" s="65"/>
+      <c r="Q52" s="65" t="s">
+        <v>427</v>
+      </c>
+      <c r="R52" s="65"/>
+      <c r="S52" s="65"/>
+      <c r="T52" s="65"/>
+      <c r="U52" s="65"/>
+      <c r="V52" s="65"/>
+      <c r="W52" s="65"/>
+      <c r="X52" s="65"/>
+      <c r="Y52" s="65"/>
+      <c r="Z52" s="65"/>
+      <c r="AA52" s="65"/>
+      <c r="AB52" s="65"/>
+      <c r="AC52" s="65"/>
+    </row>
+    <row r="53" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="N53" s="65"/>
+      <c r="O53" s="65"/>
+      <c r="P53" s="65"/>
+      <c r="Q53" s="65"/>
+      <c r="R53" s="65"/>
+      <c r="S53" s="65"/>
+      <c r="T53" s="65"/>
+      <c r="U53" s="65"/>
+      <c r="V53" s="65"/>
+      <c r="W53" s="65"/>
+      <c r="X53" s="65"/>
+      <c r="Y53" s="65"/>
+      <c r="Z53" s="65"/>
+      <c r="AA53" s="65"/>
+      <c r="AB53" s="65"/>
+      <c r="AC53" s="65"/>
+    </row>
+    <row r="54" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="N54" s="65"/>
+      <c r="O54" s="65"/>
+      <c r="P54" s="65"/>
+      <c r="Q54" s="65" t="s">
+        <v>428</v>
+      </c>
+      <c r="R54" s="65"/>
+      <c r="S54" s="65"/>
+      <c r="T54" s="65"/>
+      <c r="U54" s="65"/>
+      <c r="V54" s="65"/>
+      <c r="W54" s="65"/>
+      <c r="X54" s="65"/>
+      <c r="Y54" s="65"/>
+      <c r="Z54" s="65"/>
+      <c r="AA54" s="65"/>
+      <c r="AB54" s="65"/>
+      <c r="AC54" s="65"/>
+    </row>
+    <row r="55" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="N55" s="65"/>
+      <c r="O55" s="65"/>
+      <c r="P55" s="65"/>
+      <c r="Q55" s="65" t="s">
+        <v>429</v>
+      </c>
+      <c r="R55" s="65"/>
+      <c r="S55" s="65"/>
+      <c r="T55" s="65"/>
+      <c r="U55" s="65"/>
+      <c r="V55" s="65"/>
+      <c r="W55" s="65"/>
+      <c r="X55" s="65"/>
+      <c r="Y55" s="65"/>
+      <c r="Z55" s="65"/>
+      <c r="AA55" s="65"/>
+      <c r="AB55" s="65"/>
+      <c r="AC55" s="65"/>
+    </row>
+    <row r="56" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="N56" s="65"/>
+      <c r="O56" s="65"/>
+      <c r="P56" s="65"/>
+      <c r="Q56" s="65"/>
+      <c r="R56" s="65"/>
+      <c r="S56" s="65"/>
+      <c r="T56" s="65"/>
+      <c r="U56" s="65"/>
+      <c r="V56" s="65"/>
+      <c r="W56" s="65"/>
+      <c r="X56" s="65"/>
+      <c r="Y56" s="65"/>
+      <c r="Z56" s="65"/>
+      <c r="AA56" s="65"/>
+      <c r="AB56" s="65"/>
+      <c r="AC56" s="65"/>
+    </row>
+    <row r="57" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="N57" s="65"/>
+      <c r="O57" s="65"/>
+      <c r="P57" s="65"/>
+      <c r="Q57" s="65"/>
+      <c r="R57" s="65"/>
+      <c r="S57" s="65"/>
+      <c r="T57" s="65"/>
+      <c r="U57" s="65"/>
+      <c r="V57" s="65"/>
+      <c r="W57" s="65"/>
+      <c r="X57" s="65"/>
+      <c r="Y57" s="65"/>
+      <c r="Z57" s="65"/>
+      <c r="AA57" s="65"/>
+      <c r="AB57" s="65"/>
+      <c r="AC57" s="65"/>
+    </row>
+    <row r="58" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="N58" s="65"/>
+      <c r="O58" s="65"/>
+      <c r="P58" s="65"/>
+      <c r="Q58" s="65"/>
+      <c r="R58" s="65"/>
+      <c r="S58" s="65"/>
+      <c r="T58" s="65"/>
+      <c r="U58" s="65"/>
+      <c r="V58" s="65"/>
+      <c r="W58" s="65"/>
+      <c r="X58" s="65"/>
+      <c r="Y58" s="65"/>
+      <c r="Z58" s="65"/>
+      <c r="AA58" s="65"/>
+      <c r="AB58" s="65"/>
+      <c r="AC58" s="65"/>
+    </row>
+    <row r="59" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="N59" s="65"/>
+      <c r="O59" s="65"/>
+      <c r="P59" s="65"/>
+      <c r="Q59" s="65"/>
+      <c r="R59" s="65"/>
+      <c r="S59" s="65"/>
+      <c r="T59" s="65"/>
+      <c r="U59" s="65"/>
+      <c r="V59" s="65"/>
+      <c r="W59" s="65"/>
+      <c r="X59" s="65"/>
+      <c r="Y59" s="65"/>
+      <c r="Z59" s="65"/>
+      <c r="AA59" s="65"/>
+      <c r="AB59" s="65"/>
+      <c r="AC59" s="65"/>
+    </row>
+    <row r="60" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="N60" s="65"/>
+      <c r="O60" s="65"/>
+      <c r="P60" s="65"/>
+      <c r="Q60" s="65"/>
+      <c r="R60" s="65"/>
+      <c r="S60" s="65"/>
+      <c r="T60" s="65"/>
+      <c r="U60" s="65"/>
+      <c r="V60" s="65"/>
+      <c r="W60" s="65"/>
+      <c r="X60" s="65"/>
+      <c r="Y60" s="65"/>
+      <c r="Z60" s="65"/>
+      <c r="AA60" s="65"/>
+      <c r="AB60" s="65"/>
+      <c r="AC60" s="65"/>
+    </row>
+    <row r="61" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="N61" s="65"/>
+      <c r="O61" s="65"/>
+      <c r="P61" s="65"/>
+      <c r="Q61" s="65"/>
+      <c r="R61" s="65"/>
+      <c r="S61" s="65"/>
+      <c r="T61" s="65"/>
+      <c r="U61" s="65"/>
+      <c r="V61" s="65"/>
+      <c r="W61" s="65"/>
+      <c r="X61" s="65"/>
+      <c r="Y61" s="65"/>
+      <c r="Z61" s="65"/>
+      <c r="AA61" s="65"/>
+      <c r="AB61" s="65"/>
+      <c r="AC61" s="65"/>
+    </row>
+    <row r="62" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="N62" s="65"/>
+      <c r="O62" s="65"/>
+      <c r="P62" s="65"/>
+      <c r="Q62" s="65"/>
+      <c r="R62" s="65"/>
+      <c r="S62" s="65"/>
+      <c r="T62" s="65"/>
+      <c r="U62" s="65"/>
+      <c r="V62" s="65"/>
+      <c r="W62" s="65"/>
+      <c r="X62" s="65"/>
+      <c r="Y62" s="65"/>
+      <c r="Z62" s="65"/>
+      <c r="AA62" s="65"/>
+      <c r="AB62" s="65"/>
+      <c r="AC62" s="65"/>
+    </row>
+    <row r="63" spans="14:29" x14ac:dyDescent="0.25">
+      <c r="N63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="P63" s="65"/>
+      <c r="Q63" s="65"/>
+      <c r="R63" s="65"/>
+      <c r="S63" s="65"/>
+      <c r="T63" s="65"/>
+      <c r="U63" s="65"/>
+      <c r="V63" s="65"/>
+      <c r="W63" s="65"/>
+      <c r="X63" s="65"/>
+      <c r="Y63" s="65"/>
+      <c r="Z63" s="65"/>
+      <c r="AA63" s="65"/>
+      <c r="AB63" s="65"/>
+      <c r="AC63" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="Q14:X14"/>
+    <mergeCell ref="Q50:V50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BB39E1-BBDA-433B-A2A0-5DB3473C70E3}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3959,7 +5499,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C5" s="11"/>
     </row>
@@ -3999,17 +5539,17 @@
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="36"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4018,17 +5558,17 @@
       <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
-        <v>332</v>
-      </c>
-      <c r="B14" s="50"/>
+      <c r="A14" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="B14" s="47"/>
       <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
-        <v>333</v>
-      </c>
-      <c r="B15" s="50"/>
+      <c r="A15" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="B15" s="47"/>
       <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4110,9 +5650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6639ACC-0A68-4AD4-B81D-51ABE7ED177F}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4139,9 +5677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF91EC3-9B9C-4C79-892E-9DBBC47CA9BC}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4259,9 +5795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7B1279-2DF6-45E8-94EF-FF370892003B}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4387,9 +5921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BA0CDD-8C14-436D-A306-11FCD102CD5F}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4414,11 +5946,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B901BF-B7D2-4220-8AE7-CE487DD5E5C4}">
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4430,7 +5960,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4439,111 +5969,111 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="A4" s="48" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
     </row>
     <row r="7" spans="1:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
+      <c r="A7" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
+      <c r="A9" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
     </row>
     <row r="10" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
+      <c r="A10" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -4555,29 +6085,29 @@
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
     </row>
-    <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-    </row>
-    <row r="12" spans="1:13" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
+    <row r="11" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+    </row>
+    <row r="12" spans="1:13" ht="265.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -4590,38 +6120,38 @@
       <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
@@ -4633,15 +6163,15 @@
       <c r="C15" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
@@ -4653,15 +6183,15 @@
       <c r="C16" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -4673,15 +6203,15 @@
       <c r="C17" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
@@ -4693,15 +6223,15 @@
       <c r="C18" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
@@ -4758,189 +6288,181 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-    </row>
-    <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="B27" s="45" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+    </row>
+    <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C25" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>97</v>
+        <v>238</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>215</v>
+        <v>99</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>229</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>243</v>
+        <v>104</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>147</v>
+      <c r="A33" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>230</v>
+        <v>406</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>161</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>155</v>
-      </c>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
+      <c r="A38" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>187</v>
-      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -4961,439 +6483,452 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
+      <c r="A46" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="46" t="s">
+      <c r="A49" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>179</v>
+        <v>305</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>308</v>
+        <v>180</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
+      <c r="A54" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="46" t="s">
+      <c r="A56" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
+      <c r="A60" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="20"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>186</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C61" s="20"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C62" s="20"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>122</v>
+        <v>299</v>
       </c>
       <c r="C63" s="20"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>125</v>
+        <v>350</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>302</v>
+        <v>353</v>
       </c>
       <c r="C65" s="20"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>140</v>
+        <v>351</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>186</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="C66" s="20"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C67" s="20"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B68" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="20"/>
-    </row>
-    <row r="68" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+      <c r="C68" s="20"/>
+    </row>
+    <row r="69" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B69" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="20"/>
-    </row>
-    <row r="69" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
+      <c r="C69" s="20"/>
+    </row>
+    <row r="70" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B70" s="20" t="s">
         <v>133</v>
-      </c>
-      <c r="C69" s="20"/>
-    </row>
-    <row r="70" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>135</v>
       </c>
       <c r="C70" s="20"/>
     </row>
     <row r="71" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" s="20"/>
+    </row>
+    <row r="72" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B71" s="20" t="s">
+      <c r="B72" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="20"/>
-    </row>
-    <row r="72" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>162</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="C72" s="20"/>
+    </row>
+    <row r="73" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" t="s">
         <v>88</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>167</v>
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C77" s="21" t="s">
         <v>313</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C78" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="79" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C79" s="19"/>
     </row>
     <row r="80" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="C80" s="19"/>
     </row>
     <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-    </row>
-    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="B83" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="C83" s="44" t="s">
+      <c r="A81" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C81" s="19"/>
+    </row>
+    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+    </row>
+    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B84" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
-      <c r="B84" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="19" t="s">
+    <row r="85" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="19"/>
+      <c r="B85" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19" t="s">
+      <c r="C85" s="22" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="19" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="19" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="19" t="s">
-        <v>202</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
-    </row>
-    <row r="93" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="B93" s="49"/>
+      <c r="C93" s="49"/>
+    </row>
+    <row r="94" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="49" t="s">
+        <v>301</v>
+      </c>
+      <c r="B94" s="49"/>
+      <c r="C94" s="49"/>
+    </row>
+    <row r="95" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="50" t="s">
         <v>304</v>
       </c>
-      <c r="B93" s="38"/>
-      <c r="C93" s="38"/>
-    </row>
-    <row r="94" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="41" t="s">
-        <v>307</v>
-      </c>
-      <c r="B94" s="41"/>
-      <c r="C94" s="41"/>
-    </row>
-    <row r="95" spans="1:13" ht="348.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="43"/>
-      <c r="K95" s="43"/>
-      <c r="L95" s="43"/>
-      <c r="M95" s="43"/>
-    </row>
-    <row r="96" spans="1:13" ht="348.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B95" s="50"/>
+      <c r="C95" s="50"/>
+    </row>
+    <row r="96" spans="1:13" ht="348.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
+      <c r="J96" s="32"/>
+      <c r="K96" s="32"/>
+      <c r="L96" s="32"/>
+      <c r="M96" s="32"/>
+    </row>
+    <row r="97" ht="348.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A95:C95"/>
     <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A92:C92"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A12:C12"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="A7:M7"/>
     <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A12:C12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5412,11 +6947,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349BFA30-CCAE-439E-9B33-6250609A724A}">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5428,37 +6961,37 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>78</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="A4" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
     </row>
     <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
+      <c r="A5" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
@@ -5471,11 +7004,11 @@
       <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
+      <c r="A6" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
@@ -5488,28 +7021,28 @@
       <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
+      <c r="A7" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
     </row>
     <row r="8" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
@@ -5522,45 +7055,45 @@
       <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
+      <c r="A9" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
     </row>
     <row r="10" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="A10" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+    </row>
+    <row r="11" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -5572,12 +7105,12 @@
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
     </row>
-    <row r="12" spans="1:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
+    <row r="12" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -5605,549 +7138,623 @@
       <c r="M13" s="28"/>
     </row>
     <row r="14" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
+      <c r="A14" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-    </row>
-    <row r="16" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" spans="1:13" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="B16" s="28" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="B21" s="29" t="s">
+      <c r="C24" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+        <v>166</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="A27" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
+      <c r="A28" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
+      <c r="A29" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B30" s="20"/>
-      <c r="C30" s="20" t="s">
-        <v>269</v>
-      </c>
+      <c r="C30" s="20"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20" t="s">
-        <v>268</v>
-      </c>
+      <c r="A31" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
+      <c r="A32" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="20" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
+      <c r="A34" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
+      <c r="A35" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>19</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="B36" s="20"/>
       <c r="C36" s="20" t="s">
-        <v>186</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="C37" s="20"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="C38" s="20"/>
+      <c r="A38" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>246</v>
+        <v>119</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>287</v>
+        <v>19</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>291</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>376</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>289</v>
+        <v>377</v>
       </c>
       <c r="C40" s="20"/>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>290</v>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>242</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>127</v>
+        <v>281</v>
       </c>
       <c r="C41" s="20"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>346</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="C42" s="20"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
-        <v>140</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C44" s="20"/>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>287</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>186</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C45" s="20"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="C46" s="20"/>
+        <v>126</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="B47" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" s="20"/>
+    </row>
+    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C52" s="20"/>
+    </row>
+    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C53" s="20"/>
+    </row>
+    <row r="54" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C59" s="20"/>
+    </row>
+    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="20"/>
+    </row>
+    <row r="61" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="20"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="B61" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C61" s="20"/>
+    </row>
+    <row r="62" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C62" s="29"/>
+    </row>
+    <row r="63" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+    </row>
+    <row r="65" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="19"/>
+      <c r="B65" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="B48" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="C48" s="20"/>
-    </row>
-    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="C53" s="20"/>
-    </row>
-    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C54" s="20"/>
-    </row>
-    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="B55" s="20" t="s">
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="B75" s="49"/>
+      <c r="C75" s="49"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="C55" s="20"/>
-    </row>
-    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="C56" s="29"/>
-    </row>
-    <row r="57" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="B58" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="C58" s="44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="43"/>
-    </row>
-    <row r="61" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="24" t="s">
+        <v>379</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A76:C76"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A7:M7"/>
     <mergeCell ref="A10:M10"/>
     <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
